--- a/deuChatbot/research_result/table_to_json(1500_400).xlsx
+++ b/deuChatbot/research_result/table_to_json(1500_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27245,6 +27245,6769 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 포함하고 있지 않다고 주장하지만, 제공된 소스 텍스트에는 실기시험에 대한 구체적인 정보가 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트와 상반된 내용을 담고 있습니다. 소스 텍스트는 실기시험에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 그러한 정보가 없다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 실기시험에 대한 구체적인 정보를 제공하지 않고 일반적인 조언만 하고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 소스 텍스트와의 불일치로 인해 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트의 내용을 잘못 해석하고 있으며, 실기시험에 대한 구체적인 정보를 누락하고 있습니다. 따라서 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 소스 텍스트의 맥락과 일치하지 않습니다. 그러나 일반적인 조언을 제공하고 있어 완전히 부적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 저하됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.6168183071008536</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 디자인조형학과의 실기시험 내용이 포함되어 있지 않습니다. 디자인조형학과의 실기시험은 학교나 대학마다 다소 차이가 있을 수 있으므로, 정확한 내용을 확인하려면 해당 대학의 공식 웹사이트를 참조하거나 입학처에 문의하는 것이 가장 좋습니다.
+https://ipsi. deu. ac. kr/main. do 에서 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트에 직접적으로 관련되어 있으며, 필요한 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽고 일관됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.8492947926752434</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환'입니다.
+준비물로는 볼펜, 연필, 색연필, 수채물감 등이 필요하며, 화지크기는 켄트지3절 또는 켄트지2절을 사용합니다. 시간은 각 실기종목 모두 5시간 동안 진행됩니다.
+실기주제는 당일 추첨을 통해 주제A와 주제B 중에서 각각 1개씩 선정하여 연결된 주제를 그립니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다. 주제A에는 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 등이 포함되며, 주제B에는 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 등이 포함됩니다. 제공된 사물과 이미지는 표현하지 않아야 하며, 색상 변경도 금지되어 있습니다.
+위 정보를 참고하여 준비하시면 좋을 것 같습니다. 더 궁금한 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속해 보세요.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 배드민턴과 축구의 인정대회 목록이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않고 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확하고 일관됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.8805961776380488</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>경기지도학과에서 배드민턴(남)과 축구(남)의 모집종목별 인정대회에 대해 설명 드리겠습니다.
+배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 경기실적이 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 내용, 그리고 시험 당일의 주제 선정 방식이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 정보가 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 핵심 내용을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.7974756097904366</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 당일에 추첨을 통해 선택되며, 주제A와 주제B 각 1개씩을 연결하여 디자인합니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원문에서는 출결 점수가 반영되지 않는다고 명시하고 있지만, 생성된 응답에서는 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 주제와도 맞지 않습니다. 원문이 출결 점수의 반영 여부에 대한 질문에 대한 답변인 반면, 생성된 응답은 다른 전형에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 관련성이 떨어져 논리적 흐름이 약합니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.5317833800272515</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부종합(조기취업형계약학과전형)에서는 출결 상황이 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석일수: 120점
+- 3~6일 결석일수: 90점
+- 7~12일 결석일수: 60점
+- 13~20일 결석일수: 30점
+- 21일 이상 결석일수: 0점
+이 정보는 제공된 자료에 기반하여 답변하였습니다. 다른 궁금한 사항이 있으시면 https://ipsi.deu.ac.kr/main.do를 참조하시거나 추가로 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원과 전형에 대한 정보를 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.8531577946449239</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형인 경우, 모집인원은 17명입니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에서는 영어영문학과의 모집 인원이 28명이라고 명확히 언급하고 있지만, 생성된 응답은 해당 정보가 없다고 잘못 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본에서 제공된 정보와는 정반대의 주장을 하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 답변을 제공하지 않고 있으며, 관련성이 매우 낮습니다. 원본의 질문은 모집 인원에 대한 것이지만, 생성된 응답은 그와 관련 없는 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 모집 인원에 대한 정보가 없다고 주장하는 것은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.5068045469781526</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 모집인원이 기재되어 있지 않습니다. 다른 계열이나 단과대학의 모집인원만 기재되어 있습니다. 더 자세한 정보를 얻기 위해서는 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 확인해 보시거나, 입학관리팀에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.7945618752008929</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>2024학년도 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 제공하는 대신, 동의대학교의 평균과 표준편차에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트의 내용과 관련이 없으며, 잘못된 정보로 간주됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 정보를 제공합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 수능 영어영역 등급에 따른 점수에 대한 질문에 대한 적절한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부적절성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.684411309722235</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 영어 등급에 따른 점수는 다음과 같습니다:
+- 평균: 3.88
+- 표준 편차: 0.31
+이 데이터는 지원자의 영어 등급이 평균적으로 3.88이며, 표준편차가 0.31이라는 것을 의미합니다. 이는 지원자들의 영어 성적이 일정 범위 내에서 분포되어 있다는 것을 나타냅니다.
+만약 특정 등급에 대한 점수를 알고 싶다면, 해당 등급의 평균과 표준 편차를 이용하여 변환할 수 있습니다. 예를 들어, 4등급에 대한 점수를 알고 싶다면, 평균을 기준으로 표준편차를 사용하여 계산할 수 있습니다.
+더 자세한 정보나 특정 등급의 점수를 알고 싶으시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 주장하고 있지만, 이는 원문에서 명시된 내용과 정반대입니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 예술고 학생은 지원할 수 없다고 명시되어 있는데, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 예술고 학생의 지원 자격에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 낮은 점수를 부여할 수밖에 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충되며, 원문의 맥락을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7013970193685205</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 전형 요소 중 고교유형별 지원 자격 항목을 보면, 예술고는 특수목적고의 한 유형으로 분류되어 있으며, 이에 따른 지원 자격이 명시되어 있습니다.
+따라서 예술고 학생은 일반고, 자율고, 과학고, 국제고, 외국어고 등과 마찬가지로 농어촌학생전형으로 지원할 수 있습니다. 다만, 지원 자격 조건 중 농어촌 지역 거주 기간 등의 요건을 충족해야 합니다.
+자세한 내용은 해당 대학의 입시 홈페이지를 참조하시거나, 직접 문의해보시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 기록과 배점 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확한 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 관련 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.9139838411956045</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218cm~221cm이며, 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.7323139103456725</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다. 이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원 수와 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.9341336353660452</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 총 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 질문에 직접적으로 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.4899172667951229</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 있습니다. 자세한 대기실 및 입실시간 안내는 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확히 반영하고 있으며, 응용화학과에 대한 정보가 없다는 점도 명확히 언급하고 있습니다. 그러나 "현재 문서에는 응용화학과와 관련된 수능 최저기준이 언급되어 있지 않습니다."라는 문장은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 점을 유지하고 있습니다. 그러나 응용화학과에 대한 정보가 없다는 점에서 약간의 일관성 문제를 느낄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 충분히 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 중복된 정보가 있어 완전한 일관성을 위해 개선될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 사실적으로 정확하며, 수능 최저 기준이 없다는 점을 잘 반영하고 있습니다. 그러나 응용화학과에 대한 정보가 없다는 점에서 약간의 정확성 문제가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 개선이 필요한 부분이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.4309714436926154</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서에서 찾을 수 없습니다. 현재 문서에는 응용화학과와 관련된 수능 최저기준이 언급되어 있지 않습니다.
+문서에서 제공된 정보는 다음과 같습니다:
+- 2024학년도 주요 변경사항 중 일부 학과의 명칭 변경
+- 예를 들어, "바이오응용공학부(의생명공학, 바이오의약공학, 식품공학)"가 "의생명공학과, 바이오의약공학과, 식품공학과"로 변경되었습니다.
+- 그러나 응용화학과와 관련된 정보는 없습니다.
+따라서, 2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정확한 정보를 얻으려면 공식 웹사이트나 학교 관계자에게 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 신설된 학과 목록이 모두 포함되어 있습니다. 추가적인 "(신설)"이라는 설명도 원본의 정보와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다. 신설된 학과에 대한 정보가 일관되게 제공됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 각 항목이 명확하게 나열되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.8149928597597352</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과는 다음과 같습니다.
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설)
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설) (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 신설된 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 서류 70%와 면접 30%의 비율을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 주요 내용인 전형요소 반영비율에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 부재로 인해 내용의 흐름이 약간 손상되었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트의 정보가 결여되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 반영하지 못하고 있으며, 정보의 부재로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 핵심 정보가 결여되어 있어 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.6857267893962881</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 정확한 전형요소 반영비율 정보는 제공된 자료에서 확인할 수 없습니다. 해당 정보가 포함되어 있지 않거나, 다른 문서에서 찾아야 할 수도 있습니다.
+만약 추가적인 정보가 필요하다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신의 전형요소와 반영비율을 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시하고 있지만, 생성된 응답에서는 'ICT융합공과대학 영화학과'와 '예술디자인체육대학 패션디자인학과'만 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트의 내용과 상충하는 부분이 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용과는 다소 관련성이 떨어집니다. 원본 텍스트에서 언급된 모집단위와는 다른 학과에 대한 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 분리되어 있어 통합된 느낌이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 특정 학과에 대한 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.7270576812340299</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과로는 'ICT융합공과대학 영화학과'와 '예술디자인체육대학 패션디자인학과'가 있습니다.
+영화학과의 경우, 지원자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 가산점 적용을 받습니다. 
+패션디자인학과의 경우에는, 지원자의 수능 4개 영역 (가산점 포함) 표준 변환 점수가 가산점 적용을 받습니다.
+이 두 학과 모두 지원자의 성적에 따라 가산점을 제공하며, 이는 입시 경쟁률과 충원 합격자 수에도 영향을 미칩니다.</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 성적 반영 방법에 대한 구체적인 내용을 잘못 전달하고 있습니다. 원문에서는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답에서는 국어, 수학, 탐구(2개)의 점수를 합산하여 반영한다고 설명하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있으나, 생성된 응답은 특정 과목의 점수 합산 방식으로 설명하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 요구하는 정보와는 다르게 구체적인 과목 점수에 대한 설명이 포함되어 있어 주제에서 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있으나, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 정보가 잘못 전달되었기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 정보와 크게 다릅니다. 수능 성적 반영 방식에 대한 정확한 설명이 결여되어 있어 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 의도를 잘못 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.6925741119977139</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 &lt;가&gt;군에서는 수능 성적을 다음과 같이 반영합니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합
+이 점수는 평균 303.44, 표준 편차 10.34를 가지고 있습니다.
+따라서 지원자는 이 부분의 성적을 잘 준비하고 있어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜에 대한 정확한 정보를 제공하고 있으며, 추가적인 정보(대기실 및 입실시간 안내)도 포함되어 있습니다. 그러나 원본 텍스트에 명시된 날짜 외의 정보는 원본에 포함되어 있지 않으므로 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 날짜와 일치하지만, 추가된 정보가 원본 텍스트와 일관되지 않아서 일부분에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 날짜와 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기고사 날짜에 대한 정보는 정확하지만, 추가된 정보는 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 좋은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 추가된 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.8284378952564871</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 진행됩니다. 
+참고로, 대기실 및 입실시간 안내는 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있습니다. 레저스포츠학과와 태권도학과는 원문에 언급되지 않았으며, 전형료에 대한 정보도 원문과 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답에서는 다른 학과들이 언급되고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 일부 정보를 포함하고 있지만, 전형료와 관련된 내용은 원문과 직접적인 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원문과의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 전형료와 관련된 내용은 원문과의 맥락에서 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.7197917613095545</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 전형료가 다른 단과대학들은 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과입니다. 이들 학과는 68,000원의 수수료를 내야 합니다.
+따라서, 일반적으로 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.8830509284596147</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 전형의 경우, 수능 최저기준 항목에 "수능최저기준 없음"이라고 명시되어 있습니다.
+따라서, 다군 전형에서 수능 최저기준은 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 학과 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있어 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬워, 독자가 내용을 쉽게 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.9048216880570905</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+위와 같이 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 포함하고 있지만, 원서접수 시작일인 2024년 1월 3일(수)에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 일부 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원서접수 마감일에 대한 정보를 제공하지만, 원서접수 시작일에 대한 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 관련된 정보를 제공하므로 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원서접수 일정에 대한 정보를 명확하게 전달하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 원서접수 마감일에 대한 정보는 정확하지만, 시작일에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받지만, 사실성과 정확성에서 일부 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않으므로 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있어 전반적으로 잘 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.8414676078219721</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷)는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지이며, 마감일은 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전형 요소의 반영 비율에 대한 정보를 제공하고 있지만, 실제로는 2024학년도에 변경된 전형 요소에 대한 구체적인 내용이 누락되어 있습니다. 예를 들어, 학생부종합(조기취업형계약학과전형)과 실기/실적(경기실적우수자전형) 등의 정보가 포함되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. 원본 텍스트에서 언급된 전형들이 누락되었고, 전형의 이름도 다르게 표현되었습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 전형 요소의 변경에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 거리가 있습니다. 전형의 구체적인 변화에 대한 정보가 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 전형의 이름이 원본과 다르게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전형 요소의 변경에 대한 정보를 제공하지만, 원본 텍스트의 구조와 흐름을 따르지 않아 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 전형 요소의 반영 비율에 대한 정보가 일부 포함되어 있지만, 원본 텍스트의 정확한 내용과는 다릅니다. 특히 전형의 이름과 비율이 일치하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성 모두 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 연관성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 전형 요소의 변경에 대한 의미를 전달하고 있지만, 원본 텍스트의 맥락과는 다소 차이가 있습니다. 전형의 이름이 다르게 표현되어 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 전형의 이름이 다르게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.7729130756590069</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 반영비율이 변경된 전형들은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**:
+   - 서류: 70%
+   - 면접: 30%
+2. **학생부종합(성인학습자(정원내·외)전형)**:
+   - 서류: 70%
+   - 면접: 30%
+3. **학생부종합(재직자전형)**:
+   - 서류: 70%
+   - 면접: 30%
+이와 같이, 전형 요소 반영비율이 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기 비중이 70%라는 사실을 명시적으로 언급하지 않고, 실기 비중을 확인하기 위해 추가적인 정보를 요구하고 있습니다. 이는 원본 텍스트의 핵심 사실을 누락한 것으로, 정확한 정보 전달이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 실기가 포함되어 있다고 언급하지만, 실기 비중에 대한 명확한 정보를 제공하지 않아 원본 텍스트와 일관성이 떨어집니다. 원본 텍스트의 구체적인 수치가 누락되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 전형에 대한 정보를 제공하고 있으며, 관련된 추가 정보를 포함하고 있습니다. 그러나 실기 비중에 대한 직접적인 언급이 없기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 실기 비중에 대한 명확한 언급이 없어서 약간의 일관성 부족이 느껴집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 실기 비중에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 핵심 사실을 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 정보의 정확성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합한 정보를 제공합니다. 그러나 실기 비중에 대한 구체적인 언급이 없어서 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.6739943566560685</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 포함되어 있습니다. 그러나 정확한 실기 비중을 확인하기 위해서는 해당 학과의 모집단위별로 실기 종목 및 배점 비율을 참조해야 합니다.
+현재 제공된 정보 중에서 특정 학과의 실기 비중을 명시적으로 보여주지는 않습니다. 그러나 예를 들어, 체육학과의 경우 제자리 멀리뛰기와 메디신볼 던지기, Z-런 등이 실기 종목으로 포함되어 있으며 각각의 배점 비율이 주어져 있습니다.
+따라서 정확한 실기 비중을 확인하려면 동의대학교의 공식 웹사이트를 방문하여 해당 학과의 모집요강을 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.8286836170424322</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2024학년도에 신설되는 동의대학교의 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 구성하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 체육학과와 레저스포츠학과가 언급되었으나, 생성된 응답에서는 배드민턴(남)과 축구(남)라는 특정 종목만을 언급하고 있습니다. 이는 사실과 다르며, 원본의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트는 특정 학과를 언급하고 있지만, 생성된 응답은 종목에 대한 설명으로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주제가 잘못 해석되어 있습니다. 원본 텍스트는 학과에 대한 정보인데 반해, 생성된 응답은 특정 종목에 대한 정보로 초점을 맞추고 있어 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 주제가 다르기 때문에 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서 언급된 학과와는 다른 종목에 대한 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 모두 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 매우 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 특정 종목에 대한 설명은 있지만, 원본의 주제와는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.5591624622646542</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군에서 실기고사를 치르는 학과는 배드민턴(남)과 축구(남)입니다. 
+- 배드민턴(남): 이 종목은 서류심사와 실기고사를 모두 거치며, 실기고사는 해당 운동에 대한 실력을 평가하는 것이므로 반드시 참여해야 합니다.
+- 축구(남): 이 종목도 마찬가지로 서류심사와 실기고사를 거칩니다. 실기고사는 경기력과 관련된 실력을 평가하기 때문에 참여해야 합니다.
+따라서, 동의대학교 2024학년도 나군에서 배드민턴(남)이나 축구(남) 학과를 지원하는 경우 실기고사를 반드시 치러야 합니다.</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과 목록을 잘못 제시하고 있으며, 실제로는 지원 가능한 학과가 아닌 모집 중지된 학과를 나열하고 있습니다. 따라서 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 지원 가능한 학과를 나열하고 있지만, 생성된 응답은 해당 학과가 없다고 주장하고 있습니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 지원 가능한 학과 목록과는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다. 
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 크게 다르며, 지원 가능한 학과에 대한 잘못된 정보를 포함하고 있습니다. 
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하지만, 원본 텍스트의 의미와는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.6380022732277758</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 다음과 같은 학과에 적용됩니다.
+- 산업융합시스템공학부 (모집중지)
+- 전기전자통신공학부 (모집중지)
+- 디자인조형학과 (모집중지)
+위와 같이 2024학년도에는 해당 학과가 없습니다. 다른 전형을 통해 지원해 보시는 것을 추천드립니다.
+더 자세한 정보를 원하시면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공을 정확하게 나열하고 있으며, 신설된 학부라는 사실도 잘 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 학부의 신설 여부에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.7981417269020542</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교에서 신설되는 라이프융합학부는 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 등 세 가지 전공을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있으며, 잘못된 정보(예: 특정 고등학교의 지원 조건)에 대한 설명이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 과학고, 국제고, 외국어고에 대한 지원 조건)를 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이지만, 일부 문장이 다소 복잡하게 구성되어 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮으며, 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 편이지만, 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.527430485048241</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，可以申请동义大学的一般学生入学类型。根据提供的信息，在“나군”（普通入学）类别中，“특수목적고”（特殊目的高中）的学生是可以申请的。
+具体来说：
+- 科学高中、国际高中和外语高中：如果修完了特色高中课程或完成了1年以上的职业教育训练课程，可以申请。
+- 艺术高中和体育高中：如果修完了特色高中课程或完成了1年以上的职业教育训练课程，也可以申请。
+- 技工高中：是可以申请的。
+所以你作为特殊高中学生是符合申请条件的。你可以继续查看具体的招生专业和要求来决定申请哪个专业。如果有任何疑问，建议直接访问东义大学官网获取最新信息。</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집된다고 명시하고 있지만, 생성된 응답에서는 간호학과가 가장 많이 모집된 학과라고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원과는 전혀 다른 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대 나군 전형에 대한 질문에 답하고 있지만, 주제와 관련된 정보가 아닌 다른 학과에 대한 정보를 제공하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에는 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 흐름이 있습니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 의미적 일치가 부족하여 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 이해도에 영향을 미칠 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.5696965253714472</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 보면, '의료보건생활대학'에 속한 여러 학과들이 많은 지원을 받았습니다. 특히, '간호학과', '방사선학과', '물리치료학과'가 각각 145명, 36명, 51명의 지원자를 받았는데, 이는 다른 학과들에 비해 훨씬 많은 지원자 수를 보여줍니다. 따라서 가장 많이 모집된 학과로는 '간호학과'가 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 잘못 해석하고 있습니다. 원본 텍스트는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원이 가능하다고 잘못 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트의 내용과 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 해석을 바탕으로 하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.5753342465022714</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，你可以通过동의대학교的学生部申请农村地区学生选拔。具体来说，在“나군 학생부교과(농어촌학생전형) - 정원외 지원자격”部分中提到：
+- 특수목적고: 
+  - 과학고, 국제고, 외국어고: 支持
+  - 예술고, 체육고: 支持
+所以，你是可以申请的。但是具体还需要查看你所在的特殊高中的教育课程是否符合要求。
+如果有进一步的问题或需要确认的信息，请访问 https://ipsi. deu. ac. kr/main. do 查看详细规定。</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 전형이나 단과대학, 모집단위별로는 평균 성적이 주어졌지만"이라는 부분은 원문에 명시되어 있지 않은 정보로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 대체로 일치하지만, "다른 전형이나 단과대학, 모집단위별로는 평균 성적이 주어졌지만"이라는 추가 정보는 원문에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "deu. ac. kr" 부분에서 공백이 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 추가 정보가 원문과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 정확하지만, 추가된 정보가 원문에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, 추가된 정보가 원문에 없기 때문에 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장 구조가 약간 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.797197926133047</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 합격자 평균 성적의 데이터가 없습니다. 다른 전형이나 단과대학, 모집단위별로는 평균 성적이 주어졌지만, 소프트웨어공학부에 대한 정보는 없네요. 더 자세한 정보를 얻기 위해서는 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문해 보시거나, 관련 부서에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 전공의 최초합격자 평균 성적"에 대한 언급은 원문에 포함되지 않은 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 다른 전공에 대한 질문을 추가함으로써 원문과의 일관성이 떨어집니다. 원문은 특정 전공에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 다른 전공에 대한 정보를 요청하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 요청한 정보가 없다는 점을 언급하고 있으며, 관련 링크를 제공하고 있습니다. 그러나 다른 전공에 대한 질문은 원문과 직접적인 관련이 없으므로 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "deu"와 "ac" 사이의 공백이 불필요하게 삽입되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 다른 전공에 대한 언급이 원문과의 연결성을 약간 약화시킵니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보의 정확성을 잘 반영하고 있습니다. 그러나 다른 전공에 대한 언급은 원문에 없는 정보이므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 원문과의 일관성 및 관련성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 다른 전공에 대한 언급이 원문과의 맥락에서 벗어나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 불필요한 공백이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.7595812089403854</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 전공의 최초합격자 평균 성적에 대해 자세히 알고 싶으시다면, 해당 전공의 정보를 알려주시면 도와드리겠습니다. 필요한 정보가 있다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 다르게 "최초 합격자 등록 마감"과 "충원 합격자 등록"에 대한 정보를 추가하였으며, 이는 원본 텍스트에 포함되어 있지 않은 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 떨어집니다. 특히 등록 마감일과 등록 시간에 대한 정보는 원본에 없으므로 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으나, 추가된 등록 관련 정보가 원본 텍스트와 관련이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원본과의 차이로 인해 약간의 혼란이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관되지만, 원본 텍스트와의 차이로 인해 전체적인 논리적 흐름이 약간 깨질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않고, 잘못된 추가 정보를 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받아 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0.8392620442666829</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+- **최초 합격자 발표 및 등록**: 2024년 2월 2일(금) 14:00
+- **최초 합격자 등록 마감**: 2024년 2월 7일(수) ~ 2월 13일(화)
+- **충원 합격자 1차 발표 및 등록**: 
+  - **발표**: 2024년 2월 14일(수) 09:00
+  - **등록**: 2024년 2월 14일(수) 09:00 ~ 16:00
+- **충원 합격자 2차 발표 및 등록**:
+  - **발표**: 2024년 2월 15일(목) 09:00
+  - **등록**: 2024년 2월 15일(목) 09:00 ~ 16:00
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 날짜를 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 면접고사 일정을 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 적절하지 않습니다. 원본 텍스트의 핵심 정보를 무시하고 웹사이트를 참조하라는 내용으로 대체하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본의 정보와 관련이 없는 내용으로 인해 논리적 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접고사 일정에 대한 정확한 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.3309482679396663</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>면접고사에 대한 정확한 일정은 제공된 정보에서 확인할 수 없습니다. 면접일정과 관련된 자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시기 바랍니다. 해당 사이트에서는 최신의 면접일정 및 기타 중요한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 한의예과의 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하는 방식으로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.5793076599578019</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 없습니다. "수능최저기준" 항목에서는 "수능최저기준 없음"이라고 표시되어 있습니다.
+만약 더 자세한 정보를 원하시면, [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.6476108874288771</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서는 대부분의 전형에서 수능 최저학력 기준이 없습니다. 
+특히, "가군 수능(일반학생전형)"과 "나군 수능(일반학생전형)" 등 수능 위주의 전형들은 모두 '수능최저기준 없음'으로 표시되어 있습니다.
+만약 특정 전형에서 수능 최저학력 기준이 필요하다면, 해당 전형의 설명을 자세히 확인하거나 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2차 충원 합격자 발표 날짜인 2024년 2월 15일을 정확히 언급하고 있으며, 이 날짜가 2차 발표의 날짜임을 명확히 하고 있습니다. 그러나 1차 발표와 3차 이후 발표에 대한 정보는 누락되어 있어 완전한 사실성을 반영하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성을 유지하고 있습니다. 2차 충원 합격자 발표 날짜를 언급하며, 원본 텍스트의 내용과 충돌하지 않습니다. 다만, 다른 발표 일정에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 충원 합격자 발표 일정과 직접적으로 관련이 있습니다. 2차 발표 날짜를 언급함으로써 원본 텍스트의 핵심 내용을 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있습니다. 읽기 쉽고 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 명확한 흐름을 가지고 있습니다. 발표 날짜에 대한 정보가 일관되게 전달되고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 2차 충원 합격자 발표 날짜를 정확히 반영하고 있지만, 1차 및 3차 발표 일정에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.7608387284932738</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)에 충원 합격자 발표가 있습니다. 이날은 2차 충원 합격자 발표의 날짜이기도 합니다.</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정을 정확하게 반영하고 있지만, 1차 및 2차 등록 일정이 추가되어 있으며, 3차 이후 발표 일정이 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일정을 일관되게 제공하지만, 3차 이후 발표 일정이 누락되어 있어 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 추가합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다. 따라서 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다. 그러나 3차 이후 발표 일정이 누락되어 있어 완전한 일관성을 제공하지는 않습니다. 따라서 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 3차 이후 발표 일정이 누락되어 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다. 따라서 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보가 누락되어 있어 완전한 적절성은 부족합니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다. 따라서 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.8619301253962638</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표는 다음과 같은 일정으로 이루어집니다:
+- **충원 합격자 1차 발표**: 2024년 2월 14일(수) 09:00
+- **충원 합격자 1차 등록**: 2024년 2월 14일(수) 09:00~16:00
+- **충원 합격자 2차 발표**: 2024년 2월 15일(목) 09:00
+- **충원 합격자 2차 등록**: 2024년 2월 15일(목) 09:00~16:00
+따라서 추가합격자 발표는 2024년 2월 14일과 2월 15일에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 추가 모집이 이루어진다고 명확히 설명하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명시하고 있으나, 생성된 응답은 그에 반하여 추가 모집에 대한 정보가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가 모집에 대한 잘못된 정보를 제공하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충되는 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0.492734727608792</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 추가 모집에 대한 내용이 없습니다. 각 단과대학 및 모집단위별 정원 내 모집 인원과 그에 따른 지원 자격 등이 명시되어 있지만, 추가 모집에 관한 정보는 없습니다.
+만약 추가 모집을 하고 있다면, 해당 정보는 제공된 데이터에서 확인할 수 없으므로, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 최신 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인을 대상으로 한 입학 전형에 대한 설명을 포함하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 중요한 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 없습니다. 예를 들어, 지원자격서류와 제출서류에 대한 구체적인 내용이 누락되었고, 전형요소에 대한 설명이 원본과 다릅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 주요 내용과는 관련이 적습니다. 전형의 세부사항이 아닌 일반적인 설명이 포함되어 있어 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다. 각 항목이 독립적으로 설명되지만, 원본의 흐름과는 맞지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보가 누락되었습니다. 예를 들어, 제출서류와 지원자격에 대한 구체적인 내용이 포함되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 의미적으로 적절한 부분도 있지만, 전체적으로는 부적절한 정보가 많습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.5761860935041978</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인을 대상으로 한 입학 전형 중 하나입니다. 이 전형에서는 지원자의 학업역량, 공동체역량, 그리고 전공적합성 등을 종합적으로 평가합니다.
+1. **학력서류**: 고교 학교생활기록부를 제출해야 합니다. 학생부 온라인 제공 동의자가 있는 경우 제출할 필요가 없습니다. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능합니다.
+2. **지원자격서류**: 4대 보험 가입자인 경우에는 건강보험 자격득실 확인서를 제출해야 합니다. 만약 4대 보험 미가입자 또는 창업 및 자영업자인 경우, 사업자등록증명원 또는 폐업사실증명원(국세청 홈텍스 발급)을 제출해야 합니다.
+3. **전형요소**: 서류평가 영역에는 공동체역량, 학업역량, 전공적합성이 포함됩니다.
+   - **공동체역량**은 협업능력에 중점을 둡니다.
+   - **학업역량**은 학업태도와 성취정도를 평가합니다.
+   - **전공적합성**은 지원자의 열정과 관련된 활동 및 경험을 고려합니다.
+4. **면접평가**: 면접에서는 지원동기와 입학 후의 학업 계획, 학업에 대한 어려움과 해결책, 그리고 본인이 의미를 두고 노력했던 지원 전공(계열)과 관련된 교내(직장 내) 활동을 이야기하게 됩니다.
+5. **평가 기준**: 서류평가와 면접평가의 각 영역별로 1등급부터 5등급까지 평가되며, 이에 따라 학생들의 입학 가능성도 결정됩니다.
+이러한 절차를 통해 평생학습자전형은 성인 지원자의 전반적인 역량을 종합적으로 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라는 조건만을 제시하고 있지만, 생성된 응답은 전혀 다른 조건들을 나열하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 지원자격과 생성된 응답의 내용은 서로 관련이 없습니다.
+3. Relevance Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 정보가 아닌 다른 조건들을 나열하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있으나, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.6424020983760198</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 국가 또는 지방자치단체 및 공공단체 소속 직원이어야 합니다.
+2. 근로기준법 제11조에 따라 상시근로자인 사업체에서 재직 중이어야 하며, 그 사업체는 5인 이상의 상시근로자를 보유해야 합니다 (사업주 포함).
+3. 4대 보험 중 하나 이상 가입되어 있어야 합니다.
+4. 창업 또는 자영업을 하는 경우에도 4대 보험 가입 대상이 아닌 1차 산업 종사자라면 국가 또는 지방자치단체가 발급하는 공적증명서를 통해 인정받을 수 있습니다.
+위와 같은 조건을 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지 않고 있으며, 원본 텍스트의 내용을 완전히 무시하고 있습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 이와 관련된 내용이 없다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 실기고사에 대한 정보를 제공하는 반면, 생성된 응답은 그러한 정보가 없다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사에 대한 정보를 제공하는 반면, 생성된 응답은 다른 전형에 대한 정보로 주제를 변경하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 실기고사에 대한 정보가 없다는 주장은 원본 텍스트와의 논리적 흐름을 방해합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 정보를 제공하지 않는다고 잘못 주장하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.4308433283830205</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 실기고사와 관련된 내용이 없습니다. "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"에 대한 지원 자격, 전형 요소 반영 비율, 제출 서류 등에 대해 설명이 되어 있습니다. 
+실기고사와 관련된 정보가 있다면, 추가로 제공해 주시거나 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고, 일반적인 조언을 제시하고 있습니다. 이는 원본 텍스트의 구체적인 사실과 일치하지 않으며, 정보의 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 체육학과에 대한 직접적인 정보가 없다고 언급하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 정보의 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.3487963594358684</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 체육학과에 대한 직접적인 내용은 없습니다. 일반적으로 실기고사는 해당 학과의 교수님이나 관리팀에게 연락하여 장소를 확인해야 합니다. 만약 추가 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3차 이후에만 개별 전화 통보가 이루어진다는 사실을 잘못 해석하고 있습니다. 원문에서는 수시 충원합격자 발표는 전화로 개별 연락을 하지 않는다고 명시되어 있으며, 3차 이후에만 전화 통보가 이루어진다고 설명하고 있습니다. 그러나 생성된 응답은 수시 충원합격자 발표 시점에 맞춰 개별 전화 통보가 이루어진다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시되어 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 주제와의 관련성이 다소 떨어집니다. 그러나 전반적으로 질문에 대한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해져서 응답의 일관성이 저하되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 전화 통보가 이루어지지 않는다는 사실을 잘못 전달하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.7277290858779941</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 "3차 이후 충원 합격자 (개별 전화 통보)"로 발표되며, 이 때 합격자는 개별적으로 전화 통보를 받게 됩니다. 따라서 수시 충원합격자 발표 시점에 맞춰 개별 전화 통보가 이루어집니다.
+만약 자세한 일정이나 추가 정보가 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수시모집 결과에 대한 정보를 요청하는 내용이 적절하게 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.862644583481003</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 찾을 수 없습니다. 관련 정보를 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않으면 정시모집에 지원할 수 없다는 원문과 정반대의 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 특정 전형에 대한 정보를 제공하지만, 원문에서 질문한 내용과는 관련이 적습니다. 원문은 수능 응시에 대한 질문이었으나, 생성된 응답은 다른 전형에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와의 관련성이 떨어져서 전체적인 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 어느 정도의 일관성은 있지만, 전체적으로는 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 전혀 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와의 관련성이 떨어져서 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.4560373809539094</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>2024학년도에 수능 응시를 하지 않더라도 지원이 가능합니다. 예를 들어, "나군"에서 "실기/실적 (일반학생전형)" 또는 "평생학습자전형", "성인학습자(정원내·외)전형", "재직자전형" 등에 지원할 수 있습니다.
+특히 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"에서는 다음과 같은 자격이 필요합니다:
+1. **산업체 적용 범위**: 국가, 지방자치단체, 공공단체 등에서 근무하는 경우입니다.
+2. **재직기간 산정**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다.
+또한 각 전형별로 제출서류가 다르므로, 해당 전형의 "제출서류" 항목을 참조하시면 도움이 될 것입니다. 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 언급하고 있지만, "일반적으로 지원이 어려울 수 있습니다"라는 부분은 다소 모호하고, 원문에서 명확히 언급된 사실과 상충할 수 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "일반적으로 지원이 어려울 수 있습니다"라는 문구는 원문에서의 명확한 지원 가능성과 상충합니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 지원에 대한 추가 정보를 제공하고 있지만, 원문에서의 핵심 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, "일반적으로 지원이 어려울 수 있습니다"라는 표현이 정확성을 떨어뜨립니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점과 약점을 가지고 있습니다. 전반적으로 중간 정도의 품질을 보여주므로 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 일부 표현이 원문의 의미와 다르게 해석될 수 있어 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.6062040328232114</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 모집에 지원하는 경우, 학생부교과 전형의 기준을 따르게 됩니다. 하지만, 정시 모집은 주로 고등학교 졸업 후 바로 대학 진학을 목표로 하는 학생들을 위한 것이므로, 고등학교 졸업한지 10년이 지났다면 일반적으로 지원이 어려울 수 있습니다.
+만약 특별한 사유가 있다면, 각 대학의 특별전형이나 재직자 전형 등을 통해 지원할 수 있으니, 해당 대학의 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하여 자세한 정보를 확인해 보시기 바랍니다.
+특히 나군에서는 농어촌학생전형과 평생학습자전형 등을 통해 다양한 학생들을 지원하고 있으니, 해당 전형에 대한 자격 요건을 체크하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.8015462369173629</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고가 됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 원서를 접수하며, 마감 시간은 각각의 사이트에서 확인하실 수 있습니다. 접수 사이트는 [입학안내 홈페이지](http://ipsi. deu. ac. kr) 또는 [UwayApply](http://www.uwayapply. com)입니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 서류를 제출할 수 있습니다. 제출 마감 시간은 17시까지 도착해야 합니다. 서류 제출 대상과 방법에 대한 자세한 내용은 [입학안내 홈페이지](http://ipsi. deu. ac. kr)의 전형별 세부 안내를 참조해주세요.
+4. **실기고사**:
+   - **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)에 실시됩니다. 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후 [입학안내 홈페이지](http://ipsi. deu. ac. kr)에서 확인하실 수 있습니다.
+   - **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)에 실시됩니다. 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후 [입학안내 홈페이지](http://ipsi. deu. ac. kr)에서 확인하실 수 있습니다.
+5. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024년 2월 2일 (금) 14:00에 [입학안내 홈페이지](http://ipsi. deu. ac. kr)에서 개별 조회가 가능합니다.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수)부터 13일 (화)까지 학교 지정은행에서 등록금을 납부해야 합니다. 은행 마감 시간 내에 이루어져야 합니다.
+   - **충원 합격자 발표 및 등록**: 
+     - **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 9:00
+     - **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 9:00부터 16:00까지 학교 지정은행에서 등록금을 납부해야 합니다.
+     - **2차 충원 합격자 발표 및 등록**: 
+       - **발표**: 2024년 2월 15일 (목) 9:00
+       - **등록**: 2024년 2월 15일 (목) 9:00부터 16:00까지 학교 지정은행에서 등록금을 납부해야 합니다.
+     - **3차 이후 충원 합격자 발표 및 등록**: 
+       - **발표**: 2024년 2월 15일 (목) 19:00부터 2024년 2월 20일 (화)까지
+       - **등록**: 개별 전화 통보 시 안내가 이루어집니다.
+이상의 일정을 참고하여 정시 모집에 참여하시기 바랍니다. 자세한 내용은 [입학안내 홈페이지](http://ipsi. deu. ac. kr)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.8861029465836099</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024. 01. 02.)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024. 01. 03. ~ 2024. 01. 06.)
+   - 마감일은 18시까지입니다.
+   - 접수 사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출** (2024. 01. 03. ~ 2024. 01. 12.)
+   - 마감일은 17시까지 도착해야 합니다.
+   - 서류 제출 대상과 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)** (2024. 01. 16.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)** (2024. 01. 17.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부** (2024. 02. 02.)
+   - 최초 합격자 발표는 &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 14:00에 이루어집니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서도 출력할 수 있습니다.
+7. **합격자 등록** (2024. 02. 07. ~ 02. 13.)
+   - 학교 지정은행에서 납부해야 합니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서도 출력할 수 있습니다.
+8. **충원 합격자 발표 및 등록** (2024. 02. 14. ~ 02. 15.)
+   - 1차 충원 합격자는 09:00에 발표되며, 09:00~16:00까지 등록이 가능합니다.
+   - 2차 충원 합격자도 같은 시간에 발표되고 등록이 이루어집니다.
+위와 같이 동의대학교 정시 모집 일정은 원서접수부터 실기고사, 합격자 발표 및 등록금 납부까지 단계별로 진행됩니다. 자세한 내용은 입학안내 홈페이지를 참조하시거나 https://ipsi. deu. ac. kr/ main. do에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 있는 전형을 나열하고 있지만, 원문에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열된 형식을 가지고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 전형에 대한 설명은 일관되지만, 원문과의 관계에서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 수능 미응시자가 지원할 수 있다는 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>0.6603282756201263</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**
+2. **학생부종합(성인학습자(정원내)전형)**
+3. **학생부종합(성인학습자(정원외)전형)**
+4. **학생부종합(재직자전형)**
+5. **학생부종합(조기취업형계약학과전형)**
+이러한 전형들은 주로 학생부 성적, 면접 등 다양한 평가 요소를 통해 지원자를 선발합니다. 수능 점수가 아닌 다른 평가 기준을 통해 입학 가능성을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격이 1차와 2차로 이루어졌다고 주장하지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다. 또한, 전년도 충원 합격 인원은 36명이라고 언급되어 있으나, 생성된 응답에서는 이 정보가 전혀 반영되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 1차와 2차가 있었다고 주장합니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으나, 원문에서 요구하는 정보와는 다릅니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 생성된 응답은 이와 관련이 없는 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련하여 문제가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 관계에서 비논리적인 부분이 존재합니다. 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 생성된 응답은 이를 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 관계에서 전반적으로 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 이는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있으나, 내용의 정확성과 관련하여 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.5475669850809485</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>2023년에는 전자공학과의 충원 합격이 1차와 2차로 이루어졌습니다. 
+- 2024. 02. 14.(수) 09:00에 1차 발표 및 등록이 이루어졌고,
+- 그 다음 날인 2024. 02. 15.(목) 09:00에 2차 발표 및 등록이 이루어졌습니다.
+따라서 전년도에는 전자공학과의 충원 합격이 1차와 2차로 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 모순되는 정보를 제공하고 있습니다. 원본 텍스트는 전화번호를 명확히 제시하고 있지만, 생성된 응답은 전화번호가 포함되어 있지 않다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 제공하지 않고 다른 웹사이트를 언급함으로써 주제에서 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 약해져서 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 있으며, 전화번호를 찾는 데 도움이 되지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>0.6524307087886974</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 찾으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 처리 방침을 잘못 설명하고 있습니다. 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 이를 다르게 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않을 경우 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 해당 합격자를 처리하지 않는다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 전화 통화의 중요성과 등록 포기 처리에 대한 정보가 부족합니다. 따라서 관련성은 있지만, 핵심적인 내용이 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 일관성이 부족하여 전체적으로 일관된 메시지를 전달하지 못하고 있습니다. 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 다르게 해석하고 있으며, 전화 통화가 되지 않는 경우의 처리 방침에 대한 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성 및 정확성에서도 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문이 전달하고자 하는 바와는 다소 차이가 있습니다. 따라서 의미적 적절성은 보통 수준입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 차이로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.5837768792259791</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 해당 합격자를 처리하지 않습니다. 다시 입학공고를 통해 공개적으로 모집하거나, 다음 년도의 모집에서 다시 지원을 받도록 안내해야 합니다.
+만약 자세한 내용이 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 간략하게 요약하고 있으나, 중요한 세부사항이 누락되어 있습니다. 예를 들어, 6년 과정과 12년 과정에 대한 구체적인 서류 목록이 포함되지 않았고, 부모의 사망이나 이혼에 대한 조건도 언급되지 않았습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. 원본 텍스트에서 요구하는 서류의 종류와 조건이 생략되었고, 잘못된 정보가 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 주요 내용을 충분히 반영하지 못하고 있습니다. 일부 정보는 관련이 있지만, 전체적인 맥락을 고려할 때 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 기본적인 구조를 가지고 있으나, 정보의 흐름이 매끄럽지 않고, 원본 텍스트의 논리적 흐름을 따르지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 못하고 있으며, 중요한 세부사항이 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.6773056502873573</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. 고교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+2. 농어촌 거주 증빙서류 (학생과 부모의 거주지가 동일하지 않아도 됨)
+이 외에 추가적인 서류는 필요하지 않습니다. 하지만 만약 검정고시출신자 또는 외국고교 졸업예정자인 경우에는 해당하는 대체 서류를 제출해야 합니다.
+더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 정확하게 반영하고 있으며, 추가 서류에 대한 언급도 포함되어 있습니다. 그러나 "이 외에 추가로 필요할 수 있는 서류는 없습니다"라는 문장은 원본 텍스트의 내용을 완전히 반영하지 않으며, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, "이 외에 추가로 필요할 수 있는 서류는 없습니다"라는 부분은 원본 텍스트의 내용과 모순됩니다. 따라서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 일부 문장이 원본 텍스트와의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 일부 세부 사항에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 일부 표현에서 약간의 부적절함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>0.8271480094108657</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 추가로 필요할 수 있는 서류는 없습니다. 하지만 중·고등학교 재학 시 부모 모두가 농어촌 지역에 거주한 자라면 6년 과정의 서류를 제출할 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 잘 반영하고 있으며, 저소득 기회균등 전형에 대한 언급이 없다는 점도 정확하게 전달하고 있습니다. 그러나 "현재 정보로는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 보입니다."라는 표현은 다소 주관적일 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 존재하지 않는다는 내용을 잘 유지하고 있습니다. 다만, "보입니다"라는 표현이 다소 모호함을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "제공된 정보에서는"이라는 시작이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "따라서"라는 연결어가 다소 모호하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 기회균등 전형이 존재하지 않는다는 점을 정확하게 전달하고 있습니다. 다만, "보입니다"라는 표현이 정확성을 약간 떨어뜨릴 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 "보입니다"라는 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>0.655377891817196</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서의 저소득 기회균등 전형에 대한 내용이 없습니다. 따라서, 현재 정보로는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 보입니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 방문하여 확인해보시거나, 대학 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에서 2.5등급이 절사되어 3등급으로 처리된다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 이 정보는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5등급이 절사된다고 주장합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 최저등급과 관련된 정보를 제공합니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, URL 부분에서 반복된 부분이 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 절사 기준에 대한 설명이 원본 텍스트와 충돌합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 절사 여부에 대한 정보가 없다는 원본의 내용을 무시하고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았지만, 관련성과 유창성에서 다소 긍정적인 평가를 받았습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0.7046838951791728</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사하여 3등급으로 처리됩니다. 수능 최저등급에서 사탐 2 과목의 평균산출 시, 절사 기준을 따르기 때문에 2.5는 3등급으로 반영됩니다.
+https://ipsi.ipsi.ipsi.ipsi.ipsi.ipsi.deu.acy.kr/main.do 에서 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 일정에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.8418797678857003</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표 일정은 2024년 2월 14일(수) 09:00입니다.
+2차 발표 일정은 2024년 2월 15일(목) 09:00입니다.
+3차 이후 발표 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보로 이루어집니다.
+따라서 정시 충원 합격자 발표는 총 3차가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 추가 합격 가능성을 판단하기 위해 필요한 정보를 언급하고 있지만, 원본 텍스트에서 제공된 평균 점수와 비교하여 합격 가능성을 명확히 설명하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 반영하고 있으며, 수능 성적 기준과 모집단위에 대한 정보를 추가로 제공하고 있습니다. 그러나 원본 텍스트의 평균 점수에 대한 언급이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형과 관련된 질문에 대해 직접적으로 관련된 정보를 제공하고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가적으로 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 기준과 관련된 정보를 제공하지만, 원본 텍스트의 평균 점수와 비교하여 합격 가능성을 명확히 설명하지 않아 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 일관성에서 높은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 정보가 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.5491614252904384</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 e비즈니스학과의 정시 전형에 대한 추가 합격 가능성 판단하기 어렵습니다. 정시 전형의 경우 모집단위, 수능 성적 기준 등이 다양하게 설정되어 있으므로, 구체적인 모집단위와 해당 모집단위의 수능 점수 기준을 확인해야 합니다.
+e비즈니스학과의 경우, 다군 수능(일반학생전형)에서 모집인원 10명으로 모집되며, 전형요소 반영비율이 100%로 설정되어 있습니다. 이는 수능 성적이 합격 기준을 결정하는 중요한 요소가 됩니다.
+따라서 e비즈니스학과의 정시 전형에 추가 합격 가능성을 판단하기 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. 해당 e비즈니스학과의 정시 모집단위
+2. 해당 모집단위의 수능 점수 기준
+이런 정보들을 바탕으로, 지원자의 수능 성적(4.6)이 해당 모집단위의 수능 점수 기준을 충족하는지 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 수능 4개 영역 등급 평균을 4.65로 제시하고 있지만, 원본 텍스트에서는 4.53이라고 명시되어 있습니다. 이로 인해 사실관계에 큰 오류가 발생하였고, 정시 등급 5.3이 평균보다 높다고 주장하지만, 원본 텍스트에서는 합격 가능성이 낮다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 정시 등급 5.3이 합격하기 어려울 수 있다고 명시했으나, 생성된 응답에서는 합격 가능성이 매우 높다고 주장하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 신뢰성이 떨어집니다. 그러나 전반적으로 e비즈니스학과의 합격 가능성에 대한 질문에 적절히 응답하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 반복되어 표현이 다소 중복되는 경향이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하는 데 어려움이 있습니다. 정보의 흐름이 매끄럽지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 특히, 수능 4개 영역 등급 평균에 대한 정보가 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실관계와 일관성에서 큰 오류가 있으며, 정확성 또한 부족합니다. 그러나 유창성과 관련성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 정보의 정확성이 떨어지기 때문에, 독자가 혼란스러울 수 있는 요소가 존재합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.7731332229809768</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 e비즈니스학과의 수능 4개 영역 등급 평균은 4.65이고, 표준 편차는 0.21입니다. 정시 등급이 5.3인 경우, 이는 상당히 높은 점수로, 평균보다 훨씬 높습니다.
+따라서, 정시 등급 5.3의 학생이 e비즈니스학과에 최초 합격 가능성은 매우 높다고 볼 수 있습니다. 하지만 최종 합격 여부는 단순히 수능 점수만으로 결정되는 것이 아니라, 지원 인원, 경쟁률 등 다양한 요인에 의해 영향을 받습니다.
+따라서, 정시 등급 5.3의 학생이 e비즈니스학과에 최초 합격 가능성은 매우 높다고 판단할 수 있습니다. 하지만 확실한 결과를 얻기 위해서는 동의대학교의 최종 합격자 명단을 확인하거나, 입학처와 직접 문의하는 것이 가장 정확합니다.
+더 자세한 정보를 얻고 싶으시다면, https://ipsi. deu. ac. kr/main. do 를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 사실을 명확히 반영하지 않고 있습니다. 대신, 가능성이 있다고 언급하여 원본의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 가능성이 있다고 하여 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격 여부에 대한 질문에 관련된 정보를 제공하고 있으며, 지원자의 성적, 경쟁률 등 여러 요소를 고려해야 한다고 언급합니다. 그러나 원본 텍스트의 핵심 정보인 예비 38번의 합격 가능성에 대한 명확한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 예비 합격 가능성에 대한 명확한 결론이 없고, 여러 정보가 혼재되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 잘못된 해석을 제공합니다. 원본의 정보와 상충하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일관성이 부족하고, 사실성, 정확성, 일관성에서 낮은 점수를 받았습니다. 전반적으로 원본의 핵심 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락을 완전히 반영하지 못하고 있습니다. 예비 38번의 합격 가능성에 대한 명확한 판단이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보가 혼재되어 있어 일부 독자에게는 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.5580008573858208</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 이정도의 지원자 성적과 경쟁률을 고려하면, 예비합격 가능성은 있으나 확실하지 않습니다.
+특히 다음과 같은 요소들을 고려해야 합니다:
+1. 지원자의 개인적인 학업성적
+2. 모집단위와 지원 인원 수 
+3. 경쟁률
+예를 들어, "인문사회과학대학 국어국문학과"의 경우 경쟁률이 4.11이며, 지원 인원이 많습니다. 이정도 성적이면 충분히 예비합격 가능성은 있으나, 확실하지는 않습니다.
+더 정확한 판단을 위해서는:
+- 해당 모집단위의 최종 합격자들의 평균 점수를 확인해야 합니다.
+- 지원자의 개인적인 학업성적과 경쟁률을 고려해야 합니다.
+따라서, 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률, 충원 합격자 수, 지원 인원, 평균 점수 등을 포함하고 있으며, 이는 실제 데이터와 일치하는 것으로 보입니다. 그러나, 원본 텍스트에서 제공된 평균 등급과 비교하여 정시 성적 3.44의 합격 가능성에 대한 명확한 수치를 제공하지 않기 때문에 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적 3.44에 대한 합격 가능성에 대한 해석이 다소 다릅니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 "충분히 경쟁력을 갖추지 못할 가능성이 있다"고 표현하여 다소 모호한 일관성을 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 대한 정보를 제공합니다. 경쟁률, 평균 점수 등 관련된 세부 사항을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 원본 텍스트와의 연결이 다소 약해질 수 있는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 제공된 정보에 대해 정확하게 설명하고 있으며, 원본 텍스트의 내용을 잘 반영하고 있습니다. 그러나, 합격 가능성에 대한 명확한 수치가 부족하여 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 다소 모호함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해 가능성은 다소 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>0.528319028193548</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격자 수는 37명입니다. 지원 인원이 145명으로 많은 지원자가 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 이는 정시 성적 3.44보다 높습니다. 따라서 정시 성적 3.44로는 충분히 경쟁력을 갖추지 못할 가능성이 있습니다.
+하지만, 이는 확정적인 합격 여부를 보장하는 것이 아니라, 평균 점수와 비교하여 추정한 것입니다. 실제 합격 가능성은 다양한 요인에 따라 달라질 수 있으므로, 최종 합격 여부는 동의대학교에서 발표하는 결과를 확인해야 합니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 충원 합격자 수에 대한 정보를 제공하지만, 정시 성적이 2.52인 경우 합격 가능성이 낮다고 판단하는 부분은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 2.52의 성적이 평균보다 높아 합격 가능성이 높다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.52의 성적이 합격 가능성이 높다고 말하는 반면, 생성된 응답은 합격하기 어렵다고 주장합니다. 이로 인해 두 텍스트 간의 정보가 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 평균 성적에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 질문인 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 전체적인 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 성적에 대한 해석이 원본 텍스트와 다르기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.5916458023863398</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 지원 인원이 많고 경쟁률이 높습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 영어 등급의 평균은 2.34입니다. 이는 지원자의 성적과 비교해볼 때, 평균보다 낮습니다.
+따라서, 정시 성적이 2.52인 경우 동의대학교 간호학과에 최종 합격하기 어렵다고 판단됩니다. 하지만, 입학사정관제가 적용되는 경우에는 다른 요소들이 고려되어 합격 가능성은 높아질 수 있습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 3.7의 성적이 낮을 수 있다는 점을 언급하고 있습니다. 그러나 일부 대학에서 요구하는 성적 기준에 대한 정보는 다소 일반적이며, 구체적인 데이터가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 정시 전형에서의 합격 가능성에 대한 다양한 요소를 제시하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 성적과의 비교가 다소 모호하게 표현되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과에 지원하는 데 필요한 정보와 고려해야 할 요소들을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 몇몇 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 합격 가능성에 대한 다양한 요소를 제시하고 있습니다. 그러나 특정 대학의 기준에 대한 정보는 다소 일반적입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부 사항에서 더 구체적인 정보가 필요할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>0.6098080728773816</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 간호학과에 지원하는 데 어려움이 있을 수 있습니다. 간호학과는 보통 높은 평균 성적을 요구하기 때문입니다. 하지만 정시 전형에서 합격할 가능성은 다음과 같이 고려해볼 수 있습니다:
+1. **학교별 기준**: 각 대학의 간호학과가 설정한 최저 성적 기준을 확인해야 합니다. 일부 대학에서는 3.5 이상이 요구되기도 합니다.
+2. **전형 요소**: 정시 전형에서 학생부 종합 평가를 받는 경우, 인성, 학업역량, 전공적합성 등 다양한 요소를 고려합니다. 따라서 성적이 조금 낮더라도 다른 요소가 우수하다면 합격 가능성은 있습니다.
+3. **지원 자격**: 지원 자격을 확인해야 합니다. 일부 대학에서는 특별한 지원 자격이 필요할 수 있습니다 (예: 간호 관련 활동, 인턴십 경력 등).
+4. **추천서 및 자기소개서**: 추천서와 자기소개서를 잘 작성하면 합격 가능성은 높아질 수 있습니다.
+5. **대비 전형**: 일부 대학에서는 정시 전형 외에 별도의 전형을 운영할 수 있으므로, 해당 대학의 웹사이트나 입학처와 연락하여 자세한 정보를 얻는 것이 좋습니다.
+위와 같은 요소들을 종합적으로 고려하면 합격 가능성은 판단할 수 있습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 각 대학의 정확한 요구사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 지원자 수에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제시된 평균 등급(2.34)과 수능 4개 영역 등급 평균(3.37)과의 비교가 잘못되었습니다. 응답에서는 2.58이 평균 점수보다 낮다고 언급하고 있으나, 실제로는 2.58이 평균보다 높은 성적입니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관되지 않습니다. 원본 텍스트는 2.58이 평균 등급보다 높다고 명시하고 있지만, 생성된 응답은 반대로 2.58이 평균보다 낮다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 지원 자료와 경쟁률에 대한 정보를 제공하며, 질문에 대한 답변을 시도하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 평균 점수와의 비교 부분에서 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수를 낮추는 요인입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0.6587083244536077</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원 자료를 바탕으로 분석해보겠습니다.
+간호학과는 모집 인원이 22명이고, 지원 인원이 145명으로 경쟁률이 높습니다. 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 353.48입니다.
+당신의 성적인 2.58을 평균 점수와 비교하면, 현재 제공된 자료로는 간호학과에 정시 전형으로 합격하기 어려울 것으로 보입니다. 이는 평균 점수가 당신의 성적보다 높기 때문입니다.
+하지만, 입학사정관 제도나 특별전형 등이 있다면 다른 기회를 찾아볼 수 있습니다. 또한, 동의대학교의 정시모집군 변경 사항을 확인하여 더 자세한 정보를 얻는 것이 좋습니다.
+더 자세한 분석이나 지원 전략에 대한 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비번호 7번의 합격 여부를 판단하기 위해 추가 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 정보와는 다소 다르게 해석하고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 예비 7번의 합격 가능성에 대한 명확한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비번호 7번과 관련된 정보를 제공하고 있으며, 추가적인 정보 요청 방법도 제시하고 있습니다. 그러나 게임공학과와 직접적으로 관련된 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 일부 반영하고 있으나, 예비 7번의 합격 가능성에 대한 명확한 진술이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으나, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 예비 7번의 합격 가능성에 대한 해석이 다소 다르게 나타나고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>0.7105581438270114</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>7번 예비번호의 경우, 정확한 합격 여부를 판단하기 위해서는 해당 모집단위의 경쟁률, 지원 인원 등 정보가 필요합니다. 현재 제공된 정보만으로는 특정 모집단위의 상황을 파악할 수 없습니다.
+제공된 정보 중에서 게임공학과와 관련된 내용은 다음과 같습니다:
+- 공과대학
+  - 모집단위: 로봇자동화공학과 (28명 모집)
+  - 모집인원: 28명
+  - 지원 인원: (지원자 수가 제공되지 않아 확인 불가)
+- ICT융합공과대학
+  - 모집단위: 전기공학과, 전자공학과 (교직) (각각 24명, 34명 모집)
+  - 모집인원: 각각 24명, 34명
+  - 지원 인원: (지원자 수가 제공되지 않아 확인 불가)
+게임공학과와 직접 관련된 정보는 없습니다. 게임공학과의 예비번호 7번 합격 여부를 판단하기 위해서는 해당 모집단위의 지원 인원, 경쟁률 등 추가적인 정보가 필요합니다.
+추가적으로, 합격 여부를 확인하려면 다음과 같은 방법을 사용할 수 있습니다:
+1. 동의대학교 홈페이지에서 개별 조회를 통해 최종 합격자 명단을 확인합니다.
+2. 입학관리팀에 문의하여 상세한 정보를 얻습니다.
+만약 추가적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적 4.16이 낮다고 언급하고 있지만, 원본 텍스트에서는 4.16이 게임공학과의 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 4.16이 합격 가능성이 높다고 했으나, 생성된 응답에서는 낮은 점수라고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 정보가 왜곡되어 있습니다. 그럼에도 불구하고, 추가 합격 가능성에 대한 논의는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 4.16이라는 점수가 낮다고 잘못된 정보를 제공합니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 부분이 있지만, 원본 텍스트의 맥락과는 맞지 않는 정보가 포함되어 있어 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0.629310476329735</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 현재 제공된 데이터에서 인문사회과학대학, 법학과 모집단위의 수능 평균점수(303.44)와 비교했을 때 낮은 점수입니다. 게임공학과는 공과대학 의생명공학과, 식품공학과, 산업경영빅데이터공학과 등과 같은 공학 분야의 학과로, 수능 성적이 높은 편이므로 4.16이라는 점수만으로는 추가 합격이 어려울 것으로 보입니다.
+하지만 동점자 처리 기준을 고려하면, 수능 점수가 비슷한 지원자가 있을 경우, 면접 성적이나 서류 평가 등 다른 요소들이 결정적인 역할을 할 수 있습니다. 따라서, 추가 합격이 가능할지는 면접 성적과 서류 평가 결과에 따라 달라질 수 있습니다.
+추가적으로, 동의대학교 게임공학과는 정시 전형뿐만 아니라 특별전형 등 다양한 전형을 통해 지원할 수 있으므로, 다른 전형도 고려해보시는 것이 좋습니다. 또한, 면접 준비와 서류 작성에 대한 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것을 추천드립니다.
+https://ipsi. deu. ac. kr/main. do 에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 정보를 제공하지 않고, 대신 정보의 부족을 언급하고 있습니다. 이는 원본 텍스트에서 제공된 구체적인 성적 기준과 합격 가능성에 대한 정보를 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 성적 기준에 대한 명확한 정보를 제공하지 않고 있습니다. 원본 텍스트는 3.75의 성적이 평균보다 높다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보를 직접적으로 다루지 않고 있습니다. 따라서 관련성은 있지만, 충분하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 성적 기준에 대한 잘못된 해석을 제공합니다. 원본 텍스트의 정보와 상충하는 내용이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 원본 텍스트의 정보와 일치하지 않거나 관련성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>0.5873682852947966</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에서 성적 기준을 정확히 알 수 없습니다. 경영정보학과의 정시 모집에 대한 최신 성적 기준은 동의대학교의 공식 웹사이트를 참조하시거나, 학교 관계자에게 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.
+https://ipsi. deu. ac. kr/main. do 링크를 통해 동의대학교의 공식 웹사이트를 방문하여 최신 모집요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트의 구체적인 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)와 합격 가능성에 대한 명확한 언급이 누락되어 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 않으며, 경영정보학과의 정시 성적 기준에 대한 구체적인 정보를 제공하지 않고 있습니다. 그러나 원본 텍스트의 내용과 관련된 일반적인 조언을 포함하고 있어 일부분 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 질문에 대한 답변을 제공하려고 하지만, 구체적인 정보가 부족하여 다소 관련성이 떨어집니다. 그러나 동의대학교의 공식 웹사이트를 참조하라는 조언은 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 정보가 일관되게 제시되고 있습니다. 그러나 원본 텍스트의 구체적인 내용이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 일반적인 조언을 제공하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실을 반영하지 않아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 동의대학교의 공식 웹사이트를 참조하라는 조언은 적절합니다. 그러나 구체적인 성적 기준에 대한 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0.6134947851156058</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 성적 기준을 확인하기 어렵습니다. 경영정보학과의 정시 합격 기준은 해당 단과대학 및 모집단위별로 다를 수 있습니다. 따라서, 경영정보학과의 정시 합격 기준 점수와 지원 가능 여부를 확인하려면 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 해당 정보를 확인하거나, 입학처에 문의하는 것이 가장 정확합니다.
+일반적으로 고등학교 졸업 후 수능 성적을 기준으로 학과별로 지원이 가능하지만, 특정 학과에서는 추가적인 요건이나 제한 사항이 있을 수 있습니다. 따라서, 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하여 최신 정보와 정확한 답변을 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제공된 데이터에 기반하여 합격 가능성을 판단하기 어렵다고 언급하고 있으며, 이는 사실에 부합합니다. 그러나, 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있다는 점을 명확히 언급하지 않았기 때문에 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 합격 가능성에 대한 판단을 보류하는 일관된 주장을 하고 있습니다. 다만, 원본 텍스트의 평균 등급에 대한 언급이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 약간의 중복된 정보가 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 합격 가능성에 대한 판단을 보류하는 점에서 정확성을 유지하고 있습니다. 그러나 평균 등급에 대한 명확한 언급이 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 특정 전형에 대한 정보가 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.5985204321992709</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적이 5.33인 지원자가 합격 가능한지 확정적으로 판단하기 어렵습니다. 
+동의대학교 경영정보학과 일반학생전형의 경우, 지원자의 수능 점수와 경쟁률 등을 고려해야 합니다. 위에서 제공된 데이터는 각 단과대학 및 모집단위별 평균 점수와 표준 편차를 보여주고 있지만, 특정 전형(일반학생전형)에 대한 정보만을 기반으로 합격 가능성 판단하기에는 부족합니다.
+특정 전형의 합격 가능성을 정확히 알기 위해서는 동의대학교의 2024학년도 일반학생전형의 모집요강이나 합격선 등을 확인해야 합니다. 이 정보는 대학 홈페이지에서 공식적으로 발표되는 것이 가장 정확합니다.
+따라서, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 2024학년도 모집요강을 확인하시거나, 대학 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적에 대한 정보를 제공하지만, 원본 텍스트의 주요 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트에서는 정시 등급이 3.33일 경우 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 성적 3.33이 평균보다 낮아 합격 가능성이 매우 낮다고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 했지만, 생성된 응답은 반대로 성적이 낮아 합격 가능성이 낮다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 성적에 대한 정보를 제공하며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 핵심 포인트를 완전히 반영하지는 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 잘 정리되어 있으나, 원본 텍스트와의 관계에서 논리적 흐름이 약간 부족합니다. 원본의 주장을 반영하지 못해 일관된 주제를 유지하지 못했습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 성적 3.33에 대한 결론이 부정확합니다. 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>0.7922272960738579</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 바이오응용공학과의 최초합격자 성적을 확인해보겠습니다.
+바이오응용공학과는 수능 4개 영역 등급 평균과 국어+수학+탐구(2개) 표준 변환 점수 합을 기반으로 최초합격자를 선정합니다. 제공된 정보에 따르면, 바이오응용공학과의 성적은 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 303.44
+  - 표준 편차: 10.34
+- **영어 등급**:
+  - 평균: 3.88
+  - 표준 편차: 0.31
+- **수능 4개 영역 등급**:
+  - 평균: 4.65
+  - 표준 편차: 0.21
+이 정보를 바탕으로, 성적 3.33 정도의 학생은 수능 4개 영역 등급 평균이 약 3.88보다 낮고, 국어+수학+탐구(2개) 표준 변환 점수 합도 약 303.44보다 낮습니다.
+따라서 성적 3.33 정도의 학생은 바이오응용공학과의 최초합격자로 선정될 가능성은 매우 낮다고 볼 수 있습니다. 하지만 정확한 결과는 해당년도의 실제 합격선을 확인해야 하므로, 동의대학교 입학처 웹사이트나 전형 안내서를 참조하시거나, 직접 문의하시는 것이 좋습니다.
+더 자세한 정보를 원하신다면, https://ipsi. deu. ac. kr/main. do 를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원문에서 제시된 평균 등급보다 낮은 성적을 가지고 있다는 점을 명확히 반영하지 못하고 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있다고 언급하지만, 원문에서 제시된 합격 가능성이 낮다는 점과 일치하지 않습니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보와 고려해야 할 사항들을 잘 설명하고 있어 원문과 매우 관련성이 높습니다. 따라서, 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 약간의 흐름이 끊기는 부분이 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 명확히 반영하지 못하고 있으며, 합격 가능성에 대한 언급이 원문과 상충합니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으나, 사실성과 일관성에서 약간의 부족함이 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 일부 내용이 원문과 다르게 해석될 수 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0.6481751024802287</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만, 확실한 것은 아닙니다. 방사선학과는 보통 높은 등급을 요구하기 때문입니다. 정확한 합격 가능성은 해당 단과대학 및 모집단위의 최종 합격 기준 점수와 비교하여 판단해야 합니다.
+추가적으로, 방사선학과 지원 시 고려할 사항들:
+1. **최종 합격 기준 점수**: 각 단과대학 및 모집단위별로 정해진 최종 합격 기준 점수를 확인하세요.
+2. **경쟁률**: 해당 학과의 경쟁률을 고려하여 지원 여부를 결정하는 것이 좋습니다.
+3. **추천서 및 자기소개서**: 방사선학과는 종종 추천서나 자기소개서 등의 서류가 필요할 수 있으므로, 이에 대한 준비도 필요합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 해당 학과의 모집요강을 확인하거나, 입학처와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 방사선학과의 평균 점수와 관련된 정보를 무시하고 있으며, 제공된 데이터에 대한 정확한 판단을 내리기 어렵다고 언급하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 방사선학과에 합격할 가능성에 대한 명확한 정보를 제공하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 방사선학과의 경쟁률에 대한 언급이 추가되었지만, 이는 원본 텍스트에서 제공된 정보와 상충합니다. 원본 텍스트는 2.66의 정시 등급이 평균보다 높음을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용인 정시 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족합니다. 경쟁률에 대한 언급이 원본 텍스트의 정보와 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과의 평균 점수와 관련된 정보를 무시하고 있습니다. 이는 정확성에 부정적인 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에서 다소 벗어나 있으며, 방사선학과에 대한 정보가 부족합니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>0.627195920500058</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터는 방사선학과에 대한 정보가 없어 정확한 판단을 내리기 어렵습니다. 방사선학과의 경쟁률, 평균 점수 등 학과 특성에 따른 정보를 확인해야 합니다. 만약 방사선학과의 경쟁률이 2.66보다 낮다면, 지원 가능성이 높아 보입니다. 반대로 경쟁률이 높다면 위험할 수 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 귀하의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 3.66이 평균보다 낮다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 귀하의 성적이 평균보다 높다고 하였으나, 생성된 응답에서는 반대로 낮다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 결여하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원문에서 제공된 정보와는 다소 다른 방향으로 나아가고 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 귀하의 성적이 평균보다 낮다고 주장하는 것은 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 불일치로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0.5868295087770961</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>3.66이라는 점수를 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 어느 정도일까요?
+주어진 데이터에서 경찰행정학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 332.86이고, 표준 편차는 4.97입니다.
+332.86이 평균 점수이며, 이 점수가 표준 편차를 고려할 때 어느 정도의 범위 내에 있는지 확인해보겠습니다:
+- 1 표준 편차 내: 332.86 ± 4.97 = [327.89, 337.83]
+- 2 표준 편차 내: 332.86 ± (2 × 4.97) = [322.92, 342.79]
+당신의 점수인 3.66은 이 범위를 벗어난 수치입니다. 즉, 평균보다 상대적으로 낮은 점수이므로 합격 가능성은 낮을 것으로 예상됩니다.
+하지만, 정시 성적이 단순히 합격 여부의 유일한 기준은 아닙니다. 지원자의 경력, 자질, 면접 결과 등 다양한 요소가 고려될 수 있습니다. 따라서, 최종 합격 여부는 면접 및 기타 평가 요소를 포함하여 결정됩니다.
+만약에 더 정확한 판단을 위해서는 본교 입학관리팀과 상담하는 것이 좋습니다. 그들은 지원자의 전체 자질을 종합적으로 평가할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 언급된 특정 학과 목록을 포함하지 않고 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관된 주제를 다루고 있지만, 예비 25번의 합격 가능성에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다. 원문에서 제시한 특정 학과에 대한 언급이 없기 때문에 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보도 포함하고 있습니다. 그러나 원문에서 제공한 특정 학과 목록이 누락되어 있어 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제시한 특정 학과 목록이 누락되어 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 연결이 부족하고 특정 정보가 누락되어 있어 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락과 의미에 적절하게 부합하지만, 특정 학과에 대한 정보가 부족하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며 명확하게 전달되고 있습니다. 그러나 일부 문장이 복잡할 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0.6266388149423509</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>25번의 예비합격자는 경쟁률이 높은 편입니다. 정시 일반학생전형의 경우, 지원 인원과 모집인원 간의 비율에 따라 합격 확률이 결정되는데, 이는 매우 낮을 가능성이 있습니다.
+하지만 모든 것이 불가능한 것은 아닙니다. 예비합격자 명단에서 떨어지더라도, 정시 2차 등록이나 재응시 등을 통해 다시 도전할 수 있습니다. 또한 학교별로 다양한 전형이 있으므로, 다른 전형을 통해 입학의 기회를 찾아볼 수도 있습니다.
+더 자세한 정보는 동의대학교의 공식 웹사이트에서 확인하거나, 입학처에 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 참고하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답에서 법학과의 평균 점수와 표준 편차가 언급되었으나, 이는 원본 텍스트에 포함되어 있지 않은 정보입니다. 또한, 법학과에 대한 정보는 원본 텍스트와 관련이 없으며, 경찰행정학과의 안정권 성적에 대한 정보도 정확하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 경찰행정학과에 대한 안정권 성적을 제시하고 있지만, 생성된 응답은 법학과에 대한 정보를 추가하여 혼란을 초래하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 경찰행정학과에 대한 정보를 포함하고 있지만, 법학과에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 법학과와 경찰행정학과의 정보를 혼합하여 제시하고 있어 논리적인 흐름이 다소 떨어집니다. 두 학과의 정보를 명확히 구분하지 않아 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답에서 제공된 법학과의 평균 점수와 표준 편차는 원본 텍스트에 명시된 정보와 일치하지 않으며, 경찰행정학과에 대한 안정권 성적도 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 관련성도 부족하여 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 포함하고 있지만, 법학과에 대한 정보는 부적절하게 추가되어 있습니다. 따라서 의미적으로 적절함이 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 법학과와 경찰행정학과의 정보가 혼합되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>0.6859261547572716</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 법학과와 경찰행정학과의 지원 자료를 바탕으로 추론해보겠습니다.
+1. **법학과**:
+   - 평균 점수: 315.78
+   - 표준 편차: 6.84
+2. **경찰행정학과**:
+   - 평균 점수: 332.86
+   - 표준 편차: 4.97
+이 두 학과의 평균 성적을 바탕으로, 안정권에 들어가기 위해서는 각각의 평균 점수에서 표준 편차를 뺀 수치를 목표로 설정하는 것이 일반적인 방법입니다.
+- **법학과**:
+  - 안정권: 315.78 - 6.84 = 308.94
+- **경찰행정학과**:
+  - 안정권: 332.86 - 4.97 = 327.89
+따라서, 법학과에 정시로 들어가려면 평균 점수보다 약간 낮은 수치를 목표로 설정하면 안정권에 들 수 있을 것입니다. 경찰행정학과의 경우는 평균 점수에서 표준 편차를 뺀 수치를 목표로 하면 됩니다.
+이러한 추론을 바탕으로, 법학과와 경찰행정학과 모두 안정권에 들어가기 위해서는 각각 308.94점 이상과 327.89점 이상의 성적을 받으면 됩니다. 하지만 이는 단순 추론이며 실제 입시에서는 다양한 요소들이 고려되므로, 정확한 예측은 불가능합니다.
+더 자세한 정보나 추가적인 지원 전략이 필요하시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 모집 인원, 지원 인원, 경쟁률, 평균 등급 등의 정보를 포함하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 정확하지 않거나 누락되었습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 보육가정상담학과에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 아동학과에 대한 정보와는 다소 상충하는 부분이 있어 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 보육가정상담학과의 모집 상황과 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 아동학과에 대한 정보와는 관련성이 떨어지는 부분이 있어 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 등급과 관련된 정보가 원본 텍스트와 다르며, 일부 정보가 부정확합니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지는 부분이 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확하게 정보를 전달하고 있습니다. 다만, 일부 문장이 복잡하게 구성되어 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0.6388312274798708</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 판단을 내리기 어렵습니다. 동의대학교 보육가정상담학과의 모집 상황과 지원자의 성적 등급을 고려해야 합니다.
+보육가정상담학과의 경우, 2024학년도에 다음과 같은 특징이 있습니다:
+- 모집 인원: 5명
+- 지원 인원: 36명
+- 경쟁률: 7.20
+평균 등급은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 338.76
+- 영어 등급 평균: 2.8
+- 수능 4개 영역 등급 평균: 3.82
+정시 산출 등급이 5.33인 지원자의 경우, 이는 동의대학교 보육가정상담학과의 평균 등급(3.82)보다 높습니다. 그러나 경쟁률이 매우 높기 때문에, 단순히 등급만으로 합격 여부를 판단하기 어렵습니다.
+따라서, 정확한 합격 가능성은 동의대학교 보육가정상담학과의 모집 상황, 지원자의 전체 성적 및 기타 평가 요소 등을 고려하여 결정해야 합니다. 더 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 충원 합격자 발표에 대한 구체적인 정보를 제공하지 않고, 대신 일반적인 절차를 안내하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 충원 합격자 발표 일정과 예비 번호에 대한 가능성을 언급하지 않아 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 예비 번호에 따른 합격 가능성을 설명하고 있지만, 생성된 응답은 그에 대한 언급 없이 다른 정보로 대체하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교에 대한 정보 요청에 대한 답변을 제공하고 있지만, 원본 텍스트의 핵심 주제인 충원 합격자 발표와 관련된 정보는 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 절차를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 응집력이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고 일반적인 조언을 제공하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원본 텍스트의 핵심 정보를 반영하지 않아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과는 다소 동떨어진 정보를 제공하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>0.4974651840675504</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "동의대 보육가정상담 충원 합격 3차"에 대한 모집단위와 모집인원 등의 정보가 없습니다. 따라서 해당 전형에 대해 정확한 답변을 드리기 어렵습니다.
+추천드리는 절차는 다음과 같습니다:
+1. **홈페이지 확인**: 동의대학교의 공식 홈페이지에서 최신 정보를 확인하세요.
+2. **문서 검토**: 제공된 정보 중에서 "나군 학생부교과(농어촌학생전형)  - 정원외 지원자격" 및 "정원외 제출서류"와 같은 부분을 다시 확인해 보세요.
+3. **문의하기**: 입학관리팀에 직접 문의하여 최신 정보를 얻으시는 것이 좋습니다.
+만약 추가로 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 홈페이지에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 평균 수능 점수와 표준 편차에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 유아교육학과의 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있으며, 4.75의 성적이 지원하기 어려울 것이라고 명시하고 있습니다. 그러나 생성된 응답은 4.75가 상당히 높은 성적이라고 주장하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.75의 성적이 유아교육학과에 지원하기 어려울 것이라고 명시하고 있지만, 생성된 응답은 4.75가 경쟁력을 갖춘 성적이라고 주장하고 있습니다. 이로 인해 두 텍스트 간의 정보가 상충합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대해 논의하고 있어 원본 텍스트와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트의 내용과 일치하지 않기 때문에 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되어 있지만, 주장의 근거가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 평균 수능 점수와 관련된 잘못된 정보를 포함하고 있으며, 이는 정확성에 큰 영향을 미칩니다. 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다. 관련성은 어느 정도 있지만, 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 논의가 이루어지고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다. 원본 텍스트의 맥락과 다소 어긋나는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 정보의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>0.8016780554765777</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시로 지원하는 것은 가능합니다. 하지만 경쟁률이 높은 모집단위에서는 우수한 성적이 필요합니다.
+유아교육학과의 경우, 평균 수능 점수가 340.45이고 표준 편차가 36.36이라는 것을 볼 때, 4.75라는 수능 등급은 상당히 높은 성적입니다. 이는 유아교육학과의 평균 수능 점수보다 훨씬 높습니다. 따라서 이 성적을 가지고 지원하면 충분히 경쟁력을 갖추고 있을 것입니다.
+하지만, 유아교육학과의 모집인원이 4명이고 지원 인원이 13명이라는 것을 고려할 때, 경쟁률은 상대적으로 높습니다. 이는 많은 지원자가 우수한 성적을 보여주기 때문에 더욱 경쟁력 있는 서류와 면접 준비가 필요합니다.
+결론적으로, 4.75라는 수능 등급으로 유아교육학과를 지원하면 충분히 가능하지만, 경쟁률이 높으므로 우수한 서류와 면접 준비가 필수적입니다. 자세한 정보는 대학 입학처 웹사이트에서 확인하시거나 직접 문의하시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평균 환산등급과 표준 편차에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않으며, 잘못된 평균 환산등급(4.37)을 제시하고 있습니다. 이는 사실과 일치하지 않으므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본 텍스트는 4.16의 등급이 아동학과의 평균 등급보다 높다고 언급하고 있지만, 생성된 응답은 4.16이 평균보다 낮다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있으며, 질문자의 상황에 대한 조언을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 거리가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 평균 환산등급과 경쟁률에 대한 설명이 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 평균 환산등급(4.37)과 경쟁률(7.20)은 원본 텍스트와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문자의 상황에 대한 조언을 제공하지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.5912982169178644</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육가정상담학과의 일반학생전형에 지원하시려면, 해당 과목의 평균 환산등급과 경쟁률 등을 고려해야 합니다.
+보육가정상담학과의 일반학생전형에 대한 정보를 확인해보겠습니다:
+- **평균 환산등급**: 4.37
+- **표준 편차**: 0.28
+이 정보를 바탕으로, 평균 환산등급은 4.37이고 표준 편차가 0.28이라는 것을 알 수 있습니다. 이는 지원자의 등급이 평균보다 약간 낮다는 것을 의미합니다.
+- **표준 편차**: 0.28은 비교적 작은 값으로, 등급의 변동성이 작다는 것을 나타냅니다.
+- **경쟁률**: 7.20이라는 높은 경쟁률을 고려하면, 평균 환산등급보다 약간 낮은 4.16의 등급이 합격에 도달하기는 어려울 수 있습니다.
+하지만, 동일한 계열이나 유사한 분야에서 지원하는 경우, 경쟁률과 평균 환산등급이 비슷하다면 더 높은 확률로 합격할 수 있습니다. 또한, 추합 점수를 고려하면, 다른 과목의 성적도 중요한 요소가 될 것입니다.
+따라서, 4.16의 등급으로 보육가정상담학과에 지원하시려면, 추가적인 정보와 개인의 상황을 종합적으로 고려해야 합니다. 만약 확실한 답변이 필요하다면, 해당 대학의 입시 홈페이지나 관계자에게 직접 문의하시는 것이 좋습니다.
+[입시 홈페이지 링크](https://ipsi.deu.ac.kr/main.do)를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 소프트웨어공학부와 관련된 정보는 추가적인 세부사항을 제공하지만, 소프트웨어융합학과에 대한 직접적인 정보는 다소 모호하게 표현되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 점에서 일관성을 유지하고 있지만, 소프트웨어공학부와 관련된 정보가 추가되면서 약간의 혼란을 초래할 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 소프트웨어융합학과의 정시 지원 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 소프트웨어공학부에 대한 추가 정보가 포함되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 소프트웨어융합학과의 정시 지원 불가능성을 정확하게 반영하고 있으며, 관련된 수치와 예측도 제공하고 있습니다. 그러나 이 정보가 소프트웨어융합학과와 직접적으로 관련이 있는지는 명확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 소프트웨어융합학과와 관련된 정보를 잘 설명하고 있습니다. 다만, 소프트웨어공학부에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.4434306986368098</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)로 정시 모집이 이루어지지만, 소프트웨어융합학과는 신설되지 않았습니다. 따라서 현재 정보에서는 소프트웨어융합학과로 정시로 지원할 수 없다고 판단됩니다.
+그럼에도 불구하고, 이전 학년도의 평균 등급을 참고하면 도움이 될 것입니다. 2024학년도에 모집된 단과대학 중에서 소프트웨어공학 분야와 유사한 영역인 "ICT융합공과대학"의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균을 살펴보면, 이는 약 404.43입니다.
+따라서, 소프트웨어공학 분야로 정시 지원을 계획하고 있다면, 수능 4개 영역 (가산점 포함)의 평균 등급은 대략적으로 4.46 정도를 받아야 하는 것으로 추정할 수 있습니다. 하지만 이는 예측이며, 실제 모집에서는 다양한 요소들이 고려되기 때문에 정확한 기준을 알기 위해서는 해당 대학의 공식 정보를 확인하는 것이 좋습니다.
+더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 면접 준비와 관련된 내용을 잘 설명하고 있으며, 서류 평가와 면접 고사에 대한 정보도 포함되어 있습니다. 그러나 "따로 준비해야 하는 서류는 없습니다"라는 부분은 원문에서 명시된 "준비해야하는 서류와 자세한 사항은 'https://ipsi.deu.ac.kr/main.do'에서 확인하시기 바랍니다"와는 다소 상충될 수 있습니다. 따라서 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 서류 준비에 대한 언급이 원문과 상충하는 부분이 있어 일관성이 떨어집니다. 특히, 서류 준비가 필요 없다는 주장은 원문에서의 서류 준비 필요성을 간접적으로 부정하는 것으로 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어융합학과의 면접 준비와 관련된 질문에 대한 답변으로 매우 관련성이 높습니다. 원문에서 언급된 주요 사항들을 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 단계별 설명이 명확하게 이어집니다. 그러나 서류 준비에 대한 상충된 정보로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 서류 준비에 대한 부분에서 원문과의 불일치가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 서류 준비에 대한 상충된 정보로 인해 완전한 의미적 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있는 점이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>0.5485126804475009</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어 융합과 관련된 면접에서는 주로 지원동기, 학업역량, 전공적합성 등에 대한 질문이 제출서류와 연계되어 이루어집니다. 따라서 세특 내용을 많이 보게 됩니다.
+따라서 면접 준비 시에는 다음과 같은 사항들을 꼭 확인하고 준비해야 합니다:
+1. **지원동기 및 학업계획**: 지원 동기를 명확히 설명하며, 입학 후 어떤 학업 계획을 가지고 있는지 구체적으로 이야기해 보세요.
+2. **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 해결하기 위한 노력에 대해 이야기해 보세요.
+3. **전공적합성**: 지원 전공(계열)에 대한 관심과 이해, 진로 탐색 활동을 통한 성장과정과 결과를 설명하세요.
+또한 면접에서는 서류평가 시 작성된 면접질문지를 활용하여 제출서류의 진위 여부를 검증하기 때문에, 서류와 면접 답변이 일치하는지 확인해야 합니다. 
+따로 준비해야 하는 서류는 없습니다. 단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받을 수 있습니다.
+더 궁금한 사항이 있으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보가 아닌 중어중국학과의 성적 평균을 언급하고 있습니다. 이는 원본 텍스트와 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 중어중국학과의 성적 평균을 언급함으로써 소프트웨어공학부에 대한 정보와 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교에 대한 정보를 제공하지만, 질문의 핵심인 소프트웨어공학부의 최초합격 가능성에 대한 직접적인 답변이 부족합니다. 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 전체적으로 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 중어중국학과의 성적 평균을 언급하고 있어 정확성이 떨어집니다. 소프트웨어공학부에 대한 정보가 아닌 다른 학과의 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 맞지 않는 정보가 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 주제와 관련된 정보가 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0.6893229387978953</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 중어중국학과의 경우, 정시 성적 평균이 4.65였으며 표준 편차가 0.33이었습니다. 이와 비교해보면, 정시 성적이 4.08인 경우 동의대학교 소프트웨어공학부에 최초합격하기는 어려울 것으로 보입니다.
+하지만, 정시 성적 외에도 다양한 요소가 고려되므로, 다음과 같은 점들을 확인해보세요:
+1. **추천서 및 자기소개서**: 강력한 추천서와 잘 작성된 자기소개서가 도움이 될 수 있습니다.
+2. **실기/실적**: 실기나 실적 등 다른 평가 요인을 고려해볼 수 있습니다.
+3. **학생부 종합**: 학생부에서 보여주는 성장과정과 활동들이 중요할 수 있습니다.
+더 자세한 정보를 얻으시려면, 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5등급으로 지원 가능하다는 점을 언급하고 있지만, 소프트웨어융합학과에 대한 구체적인 합격 등급 정보가 제공되지 않았다는 원문 내용을 완전히 반영하지 못하고 있습니다. 또한, 소프트웨어공학부와 관련된 정보가 포함되어 있어 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 소프트웨어융합학과와 소프트웨어공학부를 혼동하여 언급하고 있어 일관성이 떨어집니다. 원문에서 언급된 전형 요소와 관련된 정보가 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 소프트웨어융합학과에 대한 구체적인 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 일관되지만, 소프트웨어융합학과와 소프트웨어공학부의 혼동으로 인해 논리적 흐름이 약간 깨질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5등급으로 지원 가능하다는 점을 언급하고 있지만, 원문에서 제공된 정보와의 일치성이 떨어지며, 정확한 평균 등급에 대한 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답이 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 일관성과 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절한 내용을 담고 있으나, 소프트웨어융합학과와 소프트웨어공학부의 혼동으로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 일부 혼동되는 부분이 있어 완전한 명확성을 제공하지는 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0.7023098775016937</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)의 경우, 지원 자격 중 학생부종합 평가영역에서 5등급은 가능하지만, 정확한 평균 등급을 제공하는 정보는 주어진 데이터에서 확인할 수 없습니다. 
+정시모집군 변경에 대한 내용에서는 "학생부종합(성인학습자전형): 특성화고 등을 졸업한 재직자"와 같은 지원 자격이 제시되어 있지만, 정확한 평균 등급은 주어진 데이터에서 확인할 수 없습니다. 
+따라서, 5등급으로 소프트웨어융합학과에 지원 가능하다는 점은 확인할 수 있지만, 정확한 평균 등급을 제공하기 위해서는 "정시모집군 변경" 또는 관련 학과의 모집요강을 참조해야 합니다. 자세한 정보를 얻기 위해 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 합격 가능성을 정확히 판단하기 어렵다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치하지 않습니다. 원본 텍스트는 귀하의 성적이 평균보다 높다고 판단하여 합격 가능성이 높다고 명시하고 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 귀하의 성적이 평균보다 높다고 하여 합격 가능성이 높다고 판단했지만, 생성된 응답은 확률을 정확히 판단하기 어렵다고 하여 모순된 내용을 포함하고 있습니다. 따라서, 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있습니다. 그러나 간호학과의 평균 영어 등급을 언급하는 부분은 다소 관련성이 떨어질 수 있습니다. 따라서, 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다. 따라서, 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 간호학과의 평균 영어 등급을 언급하는 부분이 주제와의 연결이 약해 보입니다. 따라서, 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 합격 가능성에 대한 판단이 원본 텍스트와 상충하여 정확성이 떨어집니다. 따라서, 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성, 일관성, 정확성에서 다소 부족한 점이 있지만, 관련성과 유창성은 양호합니다. 따라서, 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 합격 가능성에 대한 판단이 모호하여 의미적으로 적절하지 않은 부분이 있습니다. 따라서, 의미 적합성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다. 따라서, 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0.6382294529072756</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 신소재공학부에 진학할 수 있는 확률을 정확히 판단하기 어렵습니다. 동의대학교의 모집단위별 경쟁률과 지원자의 성적 분포를 고려해야 합니다.
+예를 들어, 동의대학교 의료보건생활대학 간호학과의 경우 평균 영어 등급이 4.28입니다. 이는 해당 학과에서 평균적인 점수와 비슷한 수준을 나타내지만, 경쟁률이 높은 모집단위일 수도 있고 낮은 모집단위일 수도 있습니다.
+따라서, 정확한 판단을 위해서는:
+1. 동의대학교 신소재공학부의 2024년도 지원자의 성적 분포를 확인해야 합니다.
+2. 해당 학과의 경쟁률을 파악해야 합니다.
+이 정보들을 바탕으로 개인의 성적과 상대적인 위치를 판단할 수 있습니다. 필요하다면, 동의대학교의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 더 자세한 정보를 확인하거나, 학교에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 포함되어 있지만, "자기소개서가 필요없습니다"라는 사실을 명확히 반영하지 않고, 추가적인 정보와 조건을 언급하고 있어 원문과의 일치성이 떨어진다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, "구체적인 요구 사항이 학교와 전공에 따라 다를 수 있다"는 내용은 원문과 모순된다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 질문에 관련된 정보를 제공하고 있지만, 원문에서 명확히 언급된 자기소개서 필요 여부에 대한 직접적인 답변이 부족하다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어 일관성이 떨어진다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 잘못된 정보가 포함되어 있다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하고, 정확성 및 일관성에서 낮은 점수를 받았다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 포함하고 있지만, 원문에서의 의미와는 다소 차이가 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 이해하기 쉽지만, 원문과의 관련성이 떨어져 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.4944276185859254</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>一般的情况下，对于韩国的大学入学考试（수능）一般学生选拔型（가군），不需要提交个人陈述书（자기소개서）。但是，具体要求可能会因学校和专业而异。建议您查看目标学校的官方网站或直接咨询招生办公室以获取最准确的信息。
+如果需要进一步的帮助，请访问以下链接了解更多信息：
+https://ipsi.deu.ac.kr/main.do
+希望这些信息对您有帮助！如果有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하고 있지만, 특정 학과의 평균 수능 등급에 대한 정보는 원본 텍스트에 명시된 내용과 일치하지 않습니다. 예를 들어, 원본 텍스트는 인문사회과학대학의 국어국문학과에 대한 정보를 제공하는 반면, 생성된 응답은 의료보건생활대학의 학과들에 대한 평균 수능 등급을 나열하고 있습니다. 이로 인해 일부 정보는 정확하지만, 전체적으로는 원본 텍스트와의 일관성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 특정 학과에 대한 정보가 다르기 때문에 일관성이 부족합니다. 원본 텍스트는 인문사회과학대학에 대한 정보를 제공하는 반면, 생성된 응답은 의료보건생활대학의 정보를 다루고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 학과의 평균 등급을 다루고 있어 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트에서 다루고 있는 특정 학과와의 관련성은 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽고 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 평균 수능 등급을 나열하는 방식이 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 비교에서 특정 학과에 대한 정보가 다르기 때문에 정확성이 떨어집니다. 특히, 평균 수능 등급이 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 특정 학과에 대한 정보가 원본 텍스트와 다르기 때문에 의미의 적절성이 약간 떨어집니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.7151741982679738</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 점수가 주어졌을 때, 어떤 학과에 지원할 수 있는지 판단하기 위해서는 해당 학과의 평균 수능 등급과 경쟁률 등을 고려해야 합니다.
+주어진 데이터를 바탕으로, 동의대학교 의료보건생활대학의 각 학과별로 평균 수능 등급을 확인해 보겠습니다:
+1. **간호학과**: 평균 4.91
+2. **임상병리학과**: 평균 4.15
+3. **치위생학과**: 평균 4.18
+4. **방사선학과**: 평균 3.82
+5. **의료경영학과**: 평균 5.92 (이 학과는 평균 수능 등급이 높기 때문에, 4.5로는 충분히 경쟁력이 있는 것은 아닙니다.)
+6. **물리치료학과**: 평균 3.62
+7. **식품영양학과**: 평균 5.92 (이 학과도 마찬가지로, 평균 수능 등급이 높습니다.)
+간호학과와 임상병리학과는 평균 수능 등급이 4.5보다 높기 때문에, 이들 학과에 지원하기 위해서는 추가적인 준비나 다른 전형을 고려해야 할 것입니다.
+물론, 추가모집이나 특별전형 등을 통해 가능성을 열어두어야 하지만, 현재 주어진 평균 수능 등급을 바탕으로 판단하면 4.5로는 경쟁력이 부족할 것으로 보입니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부의 정시 등급 관련 정보를 포함하고 있지 않다고 주장하지만, 원본 텍스트에는 신소재공학과의 평균 등급에 대한 구체적인 정보가 명시되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 신소재공학부에 대한 정보가 없다고 주장합니다. 이는 원본 텍스트와 상충하는 내용으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 정보를 요청하는 질문에 대해 적절한 방향으로 안내하고 있으나, 원본 텍스트의 구체적인 정보를 무시하고 있습니다. 따라서 관련성은 있지만, 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 일관되게 연결되어 있지 않으며, 원본 텍스트와의 연결이 부족합니다. 따라서 논리적인 흐름이 다소 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 신소재공학부의 정시 등급 정보를 부정확하게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 잘못 이해하고 있어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0.6300989166001236</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 신소재공학부에 대한 정시 등급 관련 내용을 확인해보았으나, 해당 정보에는 신소재공학부와 관련된 정시 등급 정보가 포함되어 있지 않습니다. 
+추가적인 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 입학 안내 및 정시 모집 요강을 확인하시거나, 학교 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, "447점보다 약간 높았다면"이라는 표현은 원본 텍스트의 명확한 사실을 왜곡하고 있습니다. 원본 텍스트는 378.15점이라는 구체적인 수치를 제공하고 있으며, 생성된 응답은 이를 모호하게 표현하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, "확실한 것은 아닙니다"라는 문구는 원본의 확신 있는 어조와 상충합니다. 원본 텍스트는 447점이 신소재공학과에 합격할 가능성이 매우 높다고 명확히 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 메시지인 합격 가능성에 대한 명확한 정보 제공이 부족합니다. 그러나 여전히 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트의 명확한 결론을 제공하지 않아 약간의 일관성 부족이 느껴집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하지만, 구체적인 수치와 확신을 제공하지 않아 정확성이 떨어집니다. 원본의 378.15점이라는 수치를 명확히 언급하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 명확한 메시지를 전달하지 못하고 있습니다. "확실한 것은 아닙니다"라는 표현은 원본의 확신과 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0.7921126886592759</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시에서 표준 변환 점수 합이 447점인 경우, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 이는 가능성이 있지만 확실한 것은 아닙니다. 
+작년에 비해 현재의 표준 변환 점수 합이 약간 상승했을 경우, 작년과 동일한 수준의 점수가 최종 평균으로 반영될 가능성은 있습니다. 하지만 이는 여러 요인에 따라 달라질 수 있으며, 정확한 결과를 알기 위해서는 입학사정관들의 판단이 필요합니다.
+만약 더 자세한 정보나 분석을 원하신다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 제공하는 자료나 연락처를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학부의 최저등급 기준에 대한 언급이 있지만, 원본 텍스트에서 제공된 평균 성적과 비교하는 정보가 부족합니다. 따라서 일부 사실은 정확하지만, 전체적으로는 불완전한 정보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 4.3 등급의 수능 영어 점수에 대한 언급이 원본 텍스트의 평균 성적과 비교되지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부의 입학 전형에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 데이터와 비교하는 내용이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 성적 데이터와 비교하는 내용이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 비교가 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 구체적인 성적 비교가 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0.5647552265596163</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 영어 점수가 4.1~4.2 등급으로 변환되면, 해당 점수가 동의대학교 신소재공학부 일반학생전형에 충분한 점수를 제공할지는 확실하지 않습니다. 각 전형별로 정해진 최저등급이 있으므로, 정확한 판단을 위해서는 해당 전형의 최저등급을 확인해야 합니다.
+동의대학교 신소재공학부 일반학생전형의 경우, 수능 영어 등급에 대한 최저등급 기준을 확인하시기 바랍니다. 만약 최저등급 기준이 4.0 이상이라면, 4.1~4.2로 변환된 점수는 충분할 것입니다.
+만약 정확한 정보를 얻고 싶다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 입학처에서 제공하는 자료나 온라인 커뮤니티에서도 유용한 정보를 얻을 수 있습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 성적 정보를 잘못 전달하고 있으며, 인문사회과학대학 국어국문학과의 성적을 언급하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없고, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과의 정보를 제공하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교 인공지능학과에 대한 정보가 아닌 다른 학과의 정보를 제공하고 있습니다. 이는 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0.7615150986837764</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인문사회과학대학 국어국문학과의 수능 일반학생전형에서 지원자의 평균 점수와 표준 편차를 살펴보면 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 303.44
+  - 표준 편차: 10.34
+- **영어 등급**:
+  - 평균: 3.88
+  - 표준 편차: 0.31
+- **수능 4개 영역 등급**:
+  - 평균: 4.65
+  - 표준 편차: 0.21
+이러한 점수를 기반으로, 동의대학교 인공지능학과 수능 일반학생전형에 지원하려면 다음과 같은 성적을 갖추는 것이 좋습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 305 이상
+- **영어 등급**: 4.0 이상
+- **수능 4개 영역 등급**: 4.8 이상
+이러한 성적을 기반으로 지원하시면 좋은 결과를 얻을 수 있을 것입니다. 하지만, 최종 합격 가능성은 개인의 성적이 아닌 경쟁률과 전체 지원자의 성적 분포에 따라 달라질 수 있으므로, 정확한 정보는 동의대학교 입학처 웹사이트에서 확인해보시기 바랍니다. 필요하시면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 학과의 평균 성적을 언급하고 있지만, 원본 텍스트에 포함된 모든 학과의 정보를 다루지 않고 있습니다. 또한, 특정 학과의 성적이 충원 합격 가능성을 언급하는 데 있어 정확하지 않은 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 전체적인 일관성이 부족합니다. 예를 들어, 원본 텍스트에서 언급된 여러 학과의 성적을 포함하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있으며, 5.27 성적에 대한 충원 합격 가능성을 다루고 있습니다. 그러나 원본 텍스트의 모든 학과 정보를 포함하지 않아 다소 부족한 점이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 반복적이거나 불필요하게 길어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 성적을 나열하는 방식이 일관성을 유지하고 있습니다. 그러나 원본 텍스트의 모든 정보를 포함하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 모든 세부 사항을 반영하지 않아 정확성이 떨어집니다. 특히, 특정 학과의 성적에 대한 언급이 원본과 일치하지 않는 경우가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있지만, 원본 텍스트의 모든 정보를 포함하지 않아 다소 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 세부 사항이 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 부분에서 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.6877621876082547</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에서 추첨 합격이 가능한 모집단위를 확인해보겠습니다.
+1. **상경대학 외식경영학과**: 
+   - 평균 수능 4개 영역 등급: 4.91
+   - 표준 편차: 0.28
+   - 이 성적은 충분히 경쟁력을 가집니다.
+2. **의료보건생활대학 임상병리학과**: 
+   - 평균 수능 4개 영역 등급: 4.15
+   - 표준 편차: 0.12
+   - 이 성적은 충분히 경쟁력을 가집니다.
+3. **의료보건생활대학 방사선학과**: 
+   - 평균 수능 4개 영역 등급: 3.82
+   - 표준 편차: 0.20
+   - 이 성적은 충분히 경쟁력을 가집니다.
+4. **의료보건생활대학 물리치료학과**: 
+   - 평균 수능 4개 영역 등급: 3.62
+   - 표준 편차: 0.15
+   - 이 성적은 충분히 경쟁력을 가집니다.
+따라서, 5.27이라는 성적을 가지고는 상경대학 외식경영학과를 비롯한 대부분의 모집단위에서 추첨 합격이 가능할 것으로 보입니다. 하지만 가장 낮은 등급인 의료보건생활대학 물리치료학과에서는 경쟁력이 약간 떨어질 수 있으므로, 해당 모집단위는 주의가 필요합니다.
+추천하는 모집단위를 선택하시려면, 자신의 희망 학과와 지원 가능성을 다시 한번 확인해보시기 바랍니다. 더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 정시 등급 4.2가 평균 등급보다 높다는 점을 잘못 해석하고 있습니다. 또한, 원본 텍스트에서 언급된 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 정시 등급 4.2가 평균보다 높다고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하여 낮다고 주장하고 있습니다. 이로 인해 정보의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보와 지원 가능성에 대한 논의를 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 포함하고 있지만, 정보의 흐름이 다소 불명확합니다. 특히, 정시 성적과 경쟁률에 대한 논의가 원본 텍스트의 주제와 잘 연결되지 않아 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 정시 성적 4.2가 평균보다 낮다고 잘못 언급하고 있으며, 이는 원본 텍스트의 사실과 반대입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 정시 성적에 대한 해석이 잘못되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란을 줄 수 있는 방식으로 제시되어 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.6743674192024181</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원자들의 평균 점수와 경쟁률을 살펴보겠습니다.
+소프트웨어공학부의 경우:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**의 평균은 314.12입니다.
+- **경쟁률**은 4.40입니다.
+당신이 정시 성적 4.2로, 이는 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균보다 낮습니다. 그러나 경쟁률이 4.40이라는 것을 고려하면, 성적만으로는 충분히 높은 점수가 아니라는 것을 알 수 있습니다.
+하지만, 정시 모집에서는 단순 성적이 아닌 다양한 요소가 반영됩니다. 예를 들어:
+- **학생부 교과성적**의 중요성이 강조되고 있습니다.
+- **면접** 결과도 중요한 역할을 합니다.
+따라서, 성적이 조금 낮더라도 학생부에서 뛰어난 성적을 보여주고, 면접에서도 좋은 평가를 받는다면 합격 가능성은 있을 수 있습니다. 하지만 경쟁률이 높기 때문에, 성적 외의 요소들도 매우 중요하게 고려되어야 합니다.
+더 자세한 정보나 추가적인 지원 전략을 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 관계자와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.92라는 점수가 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 전형성적 산출 방법에 대한 정보가 추가되어 있어, 원본 텍스트의 핵심 내용을 잘 반영하고 있습니다. 다만, 특정 학과의 최소 점수 기준에 대한 정보가 부족하다는 점에서 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되게 3.92라는 점수에 대한 합격 가능성을 언급하고 있습니다. 그러나 전형성적 산출 방법에 대한 추가적인 설명이 포함되어 있어, 원본 텍스트의 간결한 정보와는 약간의 차이가 있습니다. 전반적으로 일관성은 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 화학환경공학부의 전형에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 전형성적 산출 방법에 대한 설명이 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92라는 점수에 대한 합격 가능성을 언급하고 있습니다. 그러나 특정 학과의 최소 점수 기준에 대한 정보가 부족하여 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 그러나 일부 세부 사항에서 부족함이 있어 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 전형성적 산출 방법에 대한 추가적인 설명이 원본 텍스트의 맥락과 약간의 차이를 보일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 복잡함이 있어 완전한 이해를 위해 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0.7217020096058437</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부 일반학생전형에 지원이 가능한지 확인해보겠습니다.
+먼저, 제공된 정보에서 화학환경공학부의 모집단위와 관련된 전형성적 산출방법을 찾아보겠습니다. 
+화학환경공학부는 "나군(일반학생전형)"으로 분류되어 있으며, 해당 전형성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이 정보만으로는 특정 학과의 최소 점수 기준을 알 수 없습니다. 따라서, 동의대학교 화학환경공학부의 정시 모집에서 일반학생전형에 지원 가능한지 확인하기 위해서는 추가적인 정보가 필요합니다.
+추가적으로 필요한 정보는:
+1. 동의대학교 화학환경공학부의 정시 모집에서 일반학생전형의 최소 점수 기준
+2. 다른 과목별 표준점수와 등급점수 변환표
+이러한 정보를 확인할 수 있는 링크는 제공되지 않았습니다. 따라서, "https://ipsi. deu. ac. kr/main. do" 를 참조하여 동의대학교 화학환경공학부의 정시 모집에서 일반학생전형에 지원 가능한지 확인해보세요.
+추가 정보를 얻기 위해 해당 링크를 방문하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성을 판단하기 위해 필요한 추가 정보를 요구하고 있지만, 원본 텍스트에서 제공된 데이터와 결론을 무시하고 있습니다. 원본 텍스트는 성적이 평균보다 높다고 명시하고 있으며, 이는 합격 가능성이 높다는 결론을 내리고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 결론과 상충합니다. 원본 텍스트는 합격 가능성이 높다고 판단했지만, 생성된 응답은 이를 부정하고 추가 정보를 요구합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 결론을 무시하고 추가 정보를 요구하는 방식으로 접근하고 있습니다. 따라서 관련성 점수는 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있지만, 원본 텍스트의 결론과 상충하여 일관된 흐름을 유지하지 못하고 있습니다. 이로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 성적이 평균보다 높다는 사실을 무시하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 결론을 무시하고 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0.6372678526367382</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능 여부를 정확히 판단하기 어렵습니다. 화학환경공학부의 모집단위와 최대선발 가능 인원, 지원 인원 등의 자세한 정보가 필요합니다.
+특히, 동의대학교 화학환경공학부에 대한 다음과 같은 정보가 더 필요합니다:
+- 2024학년도 화학환경공학부의 모집단위와 최대선발 가능 인원
+- 지원 인원과 경쟁률
+이런 자세한 정보를 바탕으로 합격 가능성을 판단해야 합니다. 만약 해당 정보가 필요하다면, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 확인해 보시는 것이 좋습니다.
+또한, 수능 점수와 등급은 단순히 평균만으로 판단하기보다는 전체 지원자의 경쟁률과 모집 인원 등을 고려해야 합니다. 따라서, 동의대학교 화학환경공학부에 대한 자세한 정보를 확인하시고, 합격 가능성을 정확하게 판단하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 영화학과의 평균 성적에 대한 정보를 제공하고 있으며, 4.2라는 점수가 합격 가능성을 나타낼 수 있다는 점에서 대체로 정확합니다. 그러나 "합격 확률이 낮다고 볼 수 있다"는 주장은 다소 주관적이며, 명확한 데이터에 기반하지 않으므로 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "합격 확률이 낮다"는 주장은 원본 텍스트의 긍정적인 해석과 상충할 수 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 성적에 대한 분석과 조언을 제공합니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 느슨해질 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으며, 수치와 관련된 내용도 정확합니다. 그러나 주관적인 해석이 포함되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 주관적인 해석이 포함되어 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 일부 표현이 다소 주관적일 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0.6821249310917791</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 4개 영역 등급의 평균치를 기준으로 보면, 대부분의 단과대학 및 모집단위에서 좋은 성적입니다. 그러나 영화학과에 대한 특별한 요구사항이 있을 수 있으므로, 정확한 판단을 위해서는 다음과 같은 점들을 고려해 보세요:
+1. **영화학과의 평균 수능 등급**: 영화학과의 경우, 일반적으로 높은 수능 등급을 요구하는 경향이 있습니다. 따라서 4.2라는 점수만으로는 확실한 합격을 보장받기는 어렵습니다.
+2. **면접 성적**: 면접에서도 중요한 역할을 합니다. 지원동기와 입학 후 계획, 학업에 대한 어려움과 해결책 등을 잘 설명하는 것이 중요합니다.
+3. **서류 평가**: 서류평가에서의 공동체역량, 학업역량, 전공적합성 등도 중요한 요소입니다. 특히 영화학과는 창의성과 표현력이 요구되므로 이 부분을 잘 준비해야 합니다.
+4. **경쟁률**: 현재 제공된 데이터만으로는 특정 단과대학 및 모집단위의 경쟁률을 정확히 알 수 없습니다. 그러나 일반적으로 영화학과의 경우 높은 경쟁률을 보입니다.
+따라서, 4.2라는 점수로는 합격 확률이 낮다고 볼 수 있습니다. 하지만 면접 성적과 서류 평가에서 좋은 결과를 얻으면 합격 가능성도 높아질 수 있습니다. 
+추천되는 조치:
+- **면접 준비**: 지원동기와 입학 후 계획, 학업에 대한 어려움과 해결책 등을 잘 설명할 수 있도록 면접을 준비하세요.
+- **서류 준비**: 공동체역량, 학업역량, 전공적합성 등 서류평가에서 요구되는 요소들을 잘 준비하고 제출하세요.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 면접 절차에 대한 추가적인 설명을 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용과 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0.8982330417968238</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 면접관들은 지원자의 지원동기와 학업계획, 학업역량, 전공적합성 등을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
